--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8676890530953656</v>
+        <v>0.8676890530953638</v>
       </c>
       <c r="D2">
-        <v>0.8861647054480104</v>
+        <v>0.8861647054480085</v>
       </c>
       <c r="E2">
-        <v>0.8920299825655579</v>
+        <v>0.8920299825655562</v>
       </c>
       <c r="F2">
-        <v>0.8358156583157449</v>
+        <v>0.835815658315743</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.023744967199341</v>
       </c>
       <c r="J2">
-        <v>0.8947023765931569</v>
+        <v>0.8947023765931552</v>
       </c>
       <c r="K2">
-        <v>0.8994762258772082</v>
+        <v>0.8994762258772067</v>
       </c>
       <c r="L2">
-        <v>0.9052309963341472</v>
+        <v>0.9052309963341454</v>
       </c>
       <c r="M2">
-        <v>0.8501607838008468</v>
+        <v>0.8501607838008451</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.892910015133847</v>
+        <v>0.892910015133848</v>
       </c>
       <c r="D3">
-        <v>0.9086484515419195</v>
+        <v>0.9086484515419205</v>
       </c>
       <c r="E3">
-        <v>0.9133306344333474</v>
+        <v>0.9133306344333483</v>
       </c>
       <c r="F3">
-        <v>0.866128523223777</v>
+        <v>0.8661285232237783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028548883676111</v>
+        <v>1.028548883676112</v>
       </c>
       <c r="J3">
-        <v>0.916816713437875</v>
+        <v>0.916816713437876</v>
       </c>
       <c r="K3">
-        <v>0.9206009949900706</v>
+        <v>0.9206009949900716</v>
       </c>
       <c r="L3">
-        <v>0.925207308125116</v>
+        <v>0.9252073081251171</v>
       </c>
       <c r="M3">
-        <v>0.8788189958023854</v>
+        <v>0.8788189958023868</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.907355906290979</v>
+        <v>0.9073559062909757</v>
       </c>
       <c r="D4">
-        <v>0.9215461471517996</v>
+        <v>0.9215461471517969</v>
       </c>
       <c r="E4">
-        <v>0.9255581122232585</v>
+        <v>0.9255581122232556</v>
       </c>
       <c r="F4">
-        <v>0.8834214770347182</v>
+        <v>0.8834214770347151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031276667269566</v>
+        <v>1.031276667269565</v>
       </c>
       <c r="J4">
-        <v>0.9294680411517756</v>
+        <v>0.9294680411517728</v>
       </c>
       <c r="K4">
-        <v>0.932693727377306</v>
+        <v>0.9326937273773034</v>
       </c>
       <c r="L4">
-        <v>0.9366465671484898</v>
+        <v>0.9366465671484868</v>
       </c>
       <c r="M4">
-        <v>0.8951653796722524</v>
+        <v>0.8951653796722495</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9130745086287004</v>
+        <v>0.9130745086286981</v>
       </c>
       <c r="D5">
-        <v>0.9266555034988438</v>
+        <v>0.9266555034988424</v>
       </c>
       <c r="E5">
-        <v>0.9304036684012619</v>
+        <v>0.9304036684012598</v>
       </c>
       <c r="F5">
-        <v>0.8902564002874246</v>
+        <v>0.8902564002874223</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.03234882591017</v>
       </c>
       <c r="J5">
-        <v>0.9344722126102121</v>
+        <v>0.9344722126102102</v>
       </c>
       <c r="K5">
-        <v>0.9374785795961872</v>
+        <v>0.9374785795961856</v>
       </c>
       <c r="L5">
-        <v>0.9411736522480468</v>
+        <v>0.9411736522480451</v>
       </c>
       <c r="M5">
-        <v>0.9016248102099679</v>
+        <v>0.9016248102099657</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.914015986798882</v>
+        <v>0.9140159867988797</v>
       </c>
       <c r="D6">
-        <v>0.9274968681962593</v>
+        <v>0.9274968681962569</v>
       </c>
       <c r="E6">
-        <v>0.931201685724632</v>
+        <v>0.9312016857246301</v>
       </c>
       <c r="F6">
-        <v>0.8913811594394223</v>
+        <v>0.8913811594394198</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.032524841189708</v>
       </c>
       <c r="J6">
-        <v>0.9352958244954854</v>
+        <v>0.9352958244954832</v>
       </c>
       <c r="K6">
-        <v>0.9382661870234152</v>
+        <v>0.9382661870234131</v>
       </c>
       <c r="L6">
-        <v>0.9419188738234643</v>
+        <v>0.9419188738234624</v>
       </c>
       <c r="M6">
-        <v>0.902687681684516</v>
+        <v>0.9026876816845133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9074336133181309</v>
+        <v>0.907433613318132</v>
       </c>
       <c r="D7">
-        <v>0.921615562052807</v>
+        <v>0.9216155620528081</v>
       </c>
       <c r="E7">
-        <v>0.9256239366900741</v>
+        <v>0.925623936690075</v>
       </c>
       <c r="F7">
-        <v>0.8835143900883803</v>
+        <v>0.8835143900883813</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.031291269282551</v>
       </c>
       <c r="J7">
-        <v>0.9295360567699159</v>
+        <v>0.9295360567699169</v>
       </c>
       <c r="K7">
-        <v>0.9327587556897979</v>
+        <v>0.9327587556897988</v>
       </c>
       <c r="L7">
-        <v>0.9367080892384665</v>
+        <v>0.9367080892384674</v>
       </c>
       <c r="M7">
-        <v>0.8952531945792118</v>
+        <v>0.8952531945792128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8766712391662439</v>
+        <v>0.876671239166244</v>
       </c>
       <c r="D8">
-        <v>0.8941667946798671</v>
+        <v>0.894166794679867</v>
       </c>
       <c r="E8">
-        <v>0.8996088441010796</v>
+        <v>0.89960884410108</v>
       </c>
       <c r="F8">
-        <v>0.8466318200676222</v>
+        <v>0.8466318200676221</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.90258126127239</v>
       </c>
       <c r="K8">
-        <v>0.9070007165174095</v>
+        <v>0.9070007165174093</v>
       </c>
       <c r="L8">
-        <v>0.9123454068314172</v>
+        <v>0.9123454068314173</v>
       </c>
       <c r="M8">
-        <v>0.860386497502297</v>
+        <v>0.8603864975022968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D9">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E9">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F9">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J9">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K9">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L9">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M9">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D10">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E10">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F10">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J10">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K10">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L10">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M10">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D11">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E11">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F11">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J11">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K11">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L11">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M11">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D12">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E12">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F12">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J12">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K12">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L12">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M12">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D13">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E13">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F13">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J13">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K13">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L13">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M13">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D14">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E14">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F14">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J14">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K14">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L14">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M14">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D15">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E15">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F15">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J15">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K15">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L15">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M15">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D16">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E16">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F16">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J16">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K16">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L16">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M16">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D17">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E17">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F17">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J17">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K17">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L17">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M17">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D18">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E18">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F18">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J18">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K18">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L18">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M18">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D19">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E19">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F19">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J19">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K19">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L19">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M19">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D20">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E20">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F20">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J20">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K20">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L20">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M20">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D21">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E21">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F21">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J21">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K21">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L21">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M21">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D22">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E22">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F22">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J22">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K22">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L22">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M22">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D23">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E23">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F23">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J23">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K23">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L23">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M23">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D24">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E24">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F24">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J24">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K24">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L24">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M24">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7994247875195973</v>
+        <v>0.7994247875195964</v>
       </c>
       <c r="D25">
-        <v>0.825571314491608</v>
+        <v>0.8255713144916071</v>
       </c>
       <c r="E25">
-        <v>0.8347220653116949</v>
+        <v>0.8347220653116942</v>
       </c>
       <c r="F25">
-        <v>0.752494320585021</v>
+        <v>0.7524943205850204</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J25">
-        <v>0.8347813455612746</v>
+        <v>0.8347813455612739</v>
       </c>
       <c r="K25">
-        <v>0.8423109574819673</v>
+        <v>0.8423109574819663</v>
       </c>
       <c r="L25">
-        <v>0.8512189543465885</v>
+        <v>0.8512189543465877</v>
       </c>
       <c r="M25">
-        <v>0.7714703890185609</v>
+        <v>0.7714703890185604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8676890530953638</v>
+        <v>0.8676890530953656</v>
       </c>
       <c r="D2">
-        <v>0.8861647054480085</v>
+        <v>0.8861647054480104</v>
       </c>
       <c r="E2">
-        <v>0.8920299825655562</v>
+        <v>0.8920299825655579</v>
       </c>
       <c r="F2">
-        <v>0.835815658315743</v>
+        <v>0.8358156583157449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.023744967199341</v>
       </c>
       <c r="J2">
-        <v>0.8947023765931552</v>
+        <v>0.8947023765931569</v>
       </c>
       <c r="K2">
-        <v>0.8994762258772067</v>
+        <v>0.8994762258772082</v>
       </c>
       <c r="L2">
-        <v>0.9052309963341454</v>
+        <v>0.9052309963341472</v>
       </c>
       <c r="M2">
-        <v>0.8501607838008451</v>
+        <v>0.8501607838008468</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.892910015133848</v>
+        <v>0.892910015133847</v>
       </c>
       <c r="D3">
-        <v>0.9086484515419205</v>
+        <v>0.9086484515419195</v>
       </c>
       <c r="E3">
-        <v>0.9133306344333483</v>
+        <v>0.9133306344333474</v>
       </c>
       <c r="F3">
-        <v>0.8661285232237783</v>
+        <v>0.866128523223777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028548883676112</v>
+        <v>1.028548883676111</v>
       </c>
       <c r="J3">
-        <v>0.916816713437876</v>
+        <v>0.916816713437875</v>
       </c>
       <c r="K3">
-        <v>0.9206009949900716</v>
+        <v>0.9206009949900706</v>
       </c>
       <c r="L3">
-        <v>0.9252073081251171</v>
+        <v>0.925207308125116</v>
       </c>
       <c r="M3">
-        <v>0.8788189958023868</v>
+        <v>0.8788189958023854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9073559062909757</v>
+        <v>0.907355906290979</v>
       </c>
       <c r="D4">
-        <v>0.9215461471517969</v>
+        <v>0.9215461471517996</v>
       </c>
       <c r="E4">
-        <v>0.9255581122232556</v>
+        <v>0.9255581122232585</v>
       </c>
       <c r="F4">
-        <v>0.8834214770347151</v>
+        <v>0.8834214770347182</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031276667269565</v>
+        <v>1.031276667269566</v>
       </c>
       <c r="J4">
-        <v>0.9294680411517728</v>
+        <v>0.9294680411517756</v>
       </c>
       <c r="K4">
-        <v>0.9326937273773034</v>
+        <v>0.932693727377306</v>
       </c>
       <c r="L4">
-        <v>0.9366465671484868</v>
+        <v>0.9366465671484898</v>
       </c>
       <c r="M4">
-        <v>0.8951653796722495</v>
+        <v>0.8951653796722524</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9130745086286981</v>
+        <v>0.9130745086287004</v>
       </c>
       <c r="D5">
-        <v>0.9266555034988424</v>
+        <v>0.9266555034988438</v>
       </c>
       <c r="E5">
-        <v>0.9304036684012598</v>
+        <v>0.9304036684012619</v>
       </c>
       <c r="F5">
-        <v>0.8902564002874223</v>
+        <v>0.8902564002874246</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.03234882591017</v>
       </c>
       <c r="J5">
-        <v>0.9344722126102102</v>
+        <v>0.9344722126102121</v>
       </c>
       <c r="K5">
-        <v>0.9374785795961856</v>
+        <v>0.9374785795961872</v>
       </c>
       <c r="L5">
-        <v>0.9411736522480451</v>
+        <v>0.9411736522480468</v>
       </c>
       <c r="M5">
-        <v>0.9016248102099657</v>
+        <v>0.9016248102099679</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9140159867988797</v>
+        <v>0.914015986798882</v>
       </c>
       <c r="D6">
-        <v>0.9274968681962569</v>
+        <v>0.9274968681962593</v>
       </c>
       <c r="E6">
-        <v>0.9312016857246301</v>
+        <v>0.931201685724632</v>
       </c>
       <c r="F6">
-        <v>0.8913811594394198</v>
+        <v>0.8913811594394223</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.032524841189708</v>
       </c>
       <c r="J6">
-        <v>0.9352958244954832</v>
+        <v>0.9352958244954854</v>
       </c>
       <c r="K6">
-        <v>0.9382661870234131</v>
+        <v>0.9382661870234152</v>
       </c>
       <c r="L6">
-        <v>0.9419188738234624</v>
+        <v>0.9419188738234643</v>
       </c>
       <c r="M6">
-        <v>0.9026876816845133</v>
+        <v>0.902687681684516</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.907433613318132</v>
+        <v>0.9074336133181309</v>
       </c>
       <c r="D7">
-        <v>0.9216155620528081</v>
+        <v>0.921615562052807</v>
       </c>
       <c r="E7">
-        <v>0.925623936690075</v>
+        <v>0.9256239366900741</v>
       </c>
       <c r="F7">
-        <v>0.8835143900883813</v>
+        <v>0.8835143900883803</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.031291269282551</v>
       </c>
       <c r="J7">
-        <v>0.9295360567699169</v>
+        <v>0.9295360567699159</v>
       </c>
       <c r="K7">
-        <v>0.9327587556897988</v>
+        <v>0.9327587556897979</v>
       </c>
       <c r="L7">
-        <v>0.9367080892384674</v>
+        <v>0.9367080892384665</v>
       </c>
       <c r="M7">
-        <v>0.8952531945792128</v>
+        <v>0.8952531945792118</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.876671239166244</v>
+        <v>0.8766712391662439</v>
       </c>
       <c r="D8">
-        <v>0.894166794679867</v>
+        <v>0.8941667946798671</v>
       </c>
       <c r="E8">
-        <v>0.89960884410108</v>
+        <v>0.8996088441010796</v>
       </c>
       <c r="F8">
-        <v>0.8466318200676221</v>
+        <v>0.8466318200676222</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.90258126127239</v>
       </c>
       <c r="K8">
-        <v>0.9070007165174093</v>
+        <v>0.9070007165174095</v>
       </c>
       <c r="L8">
-        <v>0.9123454068314173</v>
+        <v>0.9123454068314172</v>
       </c>
       <c r="M8">
-        <v>0.8603864975022968</v>
+        <v>0.860386497502297</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D9">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E9">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F9">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J9">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K9">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L9">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M9">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D10">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E10">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F10">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J10">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K10">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L10">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M10">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D11">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E11">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F11">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J11">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K11">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L11">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M11">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D12">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E12">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F12">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J12">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K12">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L12">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M12">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D13">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E13">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F13">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J13">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K13">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L13">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M13">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D14">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E14">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F14">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J14">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K14">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L14">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M14">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D15">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E15">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F15">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J15">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K15">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L15">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M15">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D16">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E16">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F16">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J16">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K16">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L16">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M16">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D17">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E17">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F17">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J17">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K17">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L17">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M17">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D18">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E18">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F18">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J18">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K18">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L18">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M18">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D19">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E19">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F19">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J19">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K19">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L19">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M19">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D20">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E20">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F20">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J20">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K20">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L20">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M20">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D21">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E21">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F21">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J21">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K21">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L21">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M21">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D22">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E22">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F22">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J22">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K22">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L22">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M22">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D23">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E23">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F23">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J23">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K23">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L23">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M23">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D24">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E24">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F24">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J24">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K24">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L24">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M24">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7994247875195964</v>
+        <v>0.7994247875195973</v>
       </c>
       <c r="D25">
-        <v>0.8255713144916071</v>
+        <v>0.825571314491608</v>
       </c>
       <c r="E25">
-        <v>0.8347220653116942</v>
+        <v>0.8347220653116949</v>
       </c>
       <c r="F25">
-        <v>0.7524943205850204</v>
+        <v>0.752494320585021</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.010781184392585</v>
       </c>
       <c r="J25">
-        <v>0.8347813455612739</v>
+        <v>0.8347813455612746</v>
       </c>
       <c r="K25">
-        <v>0.8423109574819663</v>
+        <v>0.8423109574819673</v>
       </c>
       <c r="L25">
-        <v>0.8512189543465877</v>
+        <v>0.8512189543465885</v>
       </c>
       <c r="M25">
-        <v>0.7714703890185604</v>
+        <v>0.7714703890185609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8676890530953656</v>
+        <v>0.8717077927716833</v>
       </c>
       <c r="D2">
-        <v>0.8861647054480104</v>
+        <v>0.8898351493908657</v>
       </c>
       <c r="E2">
-        <v>0.8920299825655579</v>
+        <v>0.8954677158730355</v>
       </c>
       <c r="F2">
-        <v>0.8358156583157449</v>
+        <v>0.8401633880608739</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023744967199341</v>
+        <v>1.024341424683169</v>
       </c>
       <c r="J2">
-        <v>0.8947023765931569</v>
+        <v>0.8985432551844721</v>
       </c>
       <c r="K2">
-        <v>0.8994762258772082</v>
+        <v>0.9030772928418429</v>
       </c>
       <c r="L2">
-        <v>0.9052309963341472</v>
+        <v>0.9086048370985154</v>
       </c>
       <c r="M2">
-        <v>0.8501607838008468</v>
+        <v>0.8544127638365472</v>
+      </c>
+      <c r="N2">
+        <v>0.8998192896711859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.892910015133847</v>
+        <v>0.8967113872147864</v>
       </c>
       <c r="D3">
-        <v>0.9086484515419195</v>
+        <v>0.9121330048565784</v>
       </c>
       <c r="E3">
-        <v>0.9133306344333474</v>
+        <v>0.916593251313319</v>
       </c>
       <c r="F3">
-        <v>0.866128523223777</v>
+        <v>0.8701840508130273</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028548883676111</v>
+        <v>1.029107782925014</v>
       </c>
       <c r="J3">
-        <v>0.916816713437875</v>
+        <v>0.920477121449736</v>
       </c>
       <c r="K3">
-        <v>0.9206009949900706</v>
+        <v>0.9240289896939189</v>
       </c>
       <c r="L3">
-        <v>0.925207308125116</v>
+        <v>0.9284176451499483</v>
       </c>
       <c r="M3">
-        <v>0.8788189958023854</v>
+        <v>0.8828000906611169</v>
+      </c>
+      <c r="N3">
+        <v>0.921784304542396</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.907355906290979</v>
+        <v>0.9110573664456039</v>
       </c>
       <c r="D4">
-        <v>0.9215461471517996</v>
+        <v>0.9249455668004406</v>
       </c>
       <c r="E4">
-        <v>0.9255581122232585</v>
+        <v>0.9287404668951733</v>
       </c>
       <c r="F4">
-        <v>0.8834214770347182</v>
+        <v>0.8873424882384678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031276667269566</v>
+        <v>1.031818109866638</v>
       </c>
       <c r="J4">
-        <v>0.9294680411517756</v>
+        <v>0.9330465689790319</v>
       </c>
       <c r="K4">
-        <v>0.932693727377306</v>
+        <v>0.9360430068346298</v>
       </c>
       <c r="L4">
-        <v>0.9366465671484898</v>
+        <v>0.9397824833983541</v>
       </c>
       <c r="M4">
-        <v>0.8951653796722524</v>
+        <v>0.8990220232645713</v>
+      </c>
+      <c r="N4">
+        <v>0.9343716021289195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9130745086287004</v>
+        <v>0.9167405115698908</v>
       </c>
       <c r="D5">
-        <v>0.9266555034988438</v>
+        <v>0.930024777764588</v>
       </c>
       <c r="E5">
-        <v>0.9304036684012619</v>
+        <v>0.933557590411301</v>
       </c>
       <c r="F5">
-        <v>0.8902564002874246</v>
+        <v>0.8941295767877893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03234882591017</v>
+        <v>1.032884044489485</v>
       </c>
       <c r="J5">
-        <v>0.9344722126102121</v>
+        <v>0.9380219111299839</v>
       </c>
       <c r="K5">
-        <v>0.9374785795961872</v>
+        <v>0.940800103973952</v>
       </c>
       <c r="L5">
-        <v>0.9411736522480468</v>
+        <v>0.9442833163735735</v>
       </c>
       <c r="M5">
-        <v>0.9016248102099679</v>
+        <v>0.9054372605431815</v>
+      </c>
+      <c r="N5">
+        <v>0.9393540098364054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.914015986798882</v>
+        <v>0.9176763574864858</v>
       </c>
       <c r="D6">
-        <v>0.9274968681962593</v>
+        <v>0.9308613578178976</v>
       </c>
       <c r="E6">
-        <v>0.931201685724632</v>
+        <v>0.9343510942694505</v>
       </c>
       <c r="F6">
-        <v>0.8913811594394223</v>
+        <v>0.8952467308640237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032524841189708</v>
+        <v>1.033059069807392</v>
       </c>
       <c r="J6">
-        <v>0.9352958244954854</v>
+        <v>0.9388409565547853</v>
       </c>
       <c r="K6">
-        <v>0.9382661870234152</v>
+        <v>0.9415833128352108</v>
       </c>
       <c r="L6">
-        <v>0.9419188738234643</v>
+        <v>0.9450243769532887</v>
       </c>
       <c r="M6">
-        <v>0.902687681684516</v>
+        <v>0.9064931096060451</v>
+      </c>
+      <c r="N6">
+        <v>0.940174218399656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9074336133181309</v>
+        <v>0.9111345769622723</v>
       </c>
       <c r="D7">
-        <v>0.921615562052807</v>
+        <v>0.9250145592995677</v>
       </c>
       <c r="E7">
-        <v>0.9256239366900741</v>
+        <v>0.9288058930070122</v>
       </c>
       <c r="F7">
-        <v>0.8835143900883803</v>
+        <v>0.8874347319104575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031291269282551</v>
+        <v>1.031832624824566</v>
       </c>
       <c r="J7">
-        <v>0.9295360567699159</v>
+        <v>0.9331141799728059</v>
       </c>
       <c r="K7">
-        <v>0.9327587556897979</v>
+        <v>0.9361076457616014</v>
       </c>
       <c r="L7">
-        <v>0.9367080892384665</v>
+        <v>0.9398436372327822</v>
       </c>
       <c r="M7">
-        <v>0.8952531945792118</v>
+        <v>0.8991092194857927</v>
+      </c>
+      <c r="N7">
+        <v>0.9344393091380596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8766712391662439</v>
+        <v>0.8806054454975417</v>
       </c>
       <c r="D8">
-        <v>0.8941667946798671</v>
+        <v>0.897764859378314</v>
       </c>
       <c r="E8">
-        <v>0.8996088441010796</v>
+        <v>0.9029784122671684</v>
       </c>
       <c r="F8">
-        <v>0.8466318200676222</v>
+        <v>0.8508659171926191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025459614688162</v>
+        <v>1.026041531943029</v>
       </c>
       <c r="J8">
-        <v>0.90258126127239</v>
+        <v>0.9063516505519364</v>
       </c>
       <c r="K8">
-        <v>0.9070007165174095</v>
+        <v>0.9105342396241812</v>
       </c>
       <c r="L8">
-        <v>0.9123454068314172</v>
+        <v>0.9156554553355948</v>
       </c>
       <c r="M8">
-        <v>0.860386497502297</v>
+        <v>0.8645330721149365</v>
+      </c>
+      <c r="N8">
+        <v>0.9076387738557075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D9">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E9">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F9">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J9">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K9">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L9">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M9">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N9">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D10">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E10">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F10">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J10">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K10">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L10">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M10">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N10">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D11">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E11">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F11">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J11">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K11">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L11">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M11">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N11">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D12">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E12">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F12">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J12">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K12">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L12">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M12">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N12">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D13">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E13">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F13">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J13">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K13">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L13">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M13">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N13">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D14">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E14">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F14">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J14">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K14">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L14">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M14">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N14">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D15">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E15">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F15">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J15">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K15">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L15">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M15">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N15">
+        <v>0.840725115110814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D16">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E16">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F16">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J16">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K16">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L16">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M16">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N16">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D17">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E17">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F17">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J17">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K17">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L17">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M17">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N17">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D18">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E18">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F18">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J18">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K18">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L18">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M18">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N18">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D19">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E19">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F19">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J19">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K19">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L19">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M19">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N19">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D20">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E20">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F20">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J20">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K20">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L20">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M20">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N20">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D21">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E21">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F21">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J21">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K21">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L21">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M21">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N21">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D22">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E22">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F22">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J22">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K22">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L22">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M22">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N22">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D23">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E23">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F23">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J23">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K23">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L23">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M23">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N23">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D24">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E24">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F24">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J24">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K24">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L24">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M24">
-        <v>0.7714703890185609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N24">
+        <v>0.840725115110814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7994247875195973</v>
+        <v>0.8045160326134229</v>
       </c>
       <c r="D25">
-        <v>0.825571314491608</v>
+        <v>0.8301645936776101</v>
       </c>
       <c r="E25">
-        <v>0.8347220653116949</v>
+        <v>0.8390277388102775</v>
       </c>
       <c r="F25">
-        <v>0.752494320585021</v>
+        <v>0.7582957118526076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010781184392585</v>
+        <v>1.011557105498327</v>
       </c>
       <c r="J25">
-        <v>0.8347813455612746</v>
+        <v>0.8395328821224327</v>
       </c>
       <c r="K25">
-        <v>0.8423109574819673</v>
+        <v>0.8467814765295675</v>
       </c>
       <c r="L25">
-        <v>0.8512189543465885</v>
+        <v>0.8554128838602951</v>
       </c>
       <c r="M25">
-        <v>0.7714703890185609</v>
+        <v>0.7770722223798655</v>
+      </c>
+      <c r="N25">
+        <v>0.840725115110814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8717077927716833</v>
+        <v>0.8916199884843218</v>
       </c>
       <c r="D2">
-        <v>0.8898351493908657</v>
+        <v>0.9013745992867798</v>
       </c>
       <c r="E2">
-        <v>0.8954677158730355</v>
+        <v>0.9103455914413416</v>
       </c>
       <c r="F2">
-        <v>0.8401633880608739</v>
+        <v>0.9179608808063391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024341424683169</v>
+        <v>1.026297492445537</v>
       </c>
       <c r="J2">
-        <v>0.8985432551844721</v>
+        <v>0.9176077085328103</v>
       </c>
       <c r="K2">
-        <v>0.9030772928418429</v>
+        <v>0.9144034179644217</v>
       </c>
       <c r="L2">
-        <v>0.9086048370985154</v>
+        <v>0.9232134144184933</v>
       </c>
       <c r="M2">
-        <v>0.8544127638365472</v>
+        <v>0.9306952333793135</v>
       </c>
       <c r="N2">
-        <v>0.8998192896711859</v>
+        <v>0.9189108167300006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8967113872147864</v>
+        <v>0.915992074759123</v>
       </c>
       <c r="D3">
-        <v>0.9121330048565784</v>
+        <v>0.9246648120006098</v>
       </c>
       <c r="E3">
-        <v>0.916593251313319</v>
+        <v>0.9313567407039526</v>
       </c>
       <c r="F3">
-        <v>0.8701840508130273</v>
+        <v>0.93980275799755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029107782925014</v>
+        <v>1.03158505149168</v>
       </c>
       <c r="J3">
-        <v>0.920477121449736</v>
+        <v>0.9390679603977553</v>
       </c>
       <c r="K3">
-        <v>0.9240289896939189</v>
+        <v>0.9363618948762259</v>
       </c>
       <c r="L3">
-        <v>0.9284176451499483</v>
+        <v>0.9429504079370419</v>
       </c>
       <c r="M3">
-        <v>0.8828000906611169</v>
+        <v>0.9512685776511385</v>
       </c>
       <c r="N3">
-        <v>0.921784304542396</v>
+        <v>0.9404015446141205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9110573664456039</v>
+        <v>0.9302052934912898</v>
       </c>
       <c r="D4">
-        <v>0.9249455668004406</v>
+        <v>0.9382638349704969</v>
       </c>
       <c r="E4">
-        <v>0.9287404668951733</v>
+        <v>0.9436264163451281</v>
       </c>
       <c r="F4">
-        <v>0.8873424882384678</v>
+        <v>0.9525761030543084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031818109866638</v>
+        <v>1.03464611712676</v>
       </c>
       <c r="J4">
-        <v>0.9330465689790319</v>
+        <v>0.9515801077016702</v>
       </c>
       <c r="K4">
-        <v>0.9360430068346298</v>
+        <v>0.9491692616873382</v>
       </c>
       <c r="L4">
-        <v>0.9397824833983541</v>
+        <v>0.9544564614890246</v>
       </c>
       <c r="M4">
-        <v>0.8990220232645713</v>
+        <v>0.9632827227119319</v>
       </c>
       <c r="N4">
-        <v>0.9343716021289195</v>
+        <v>0.9529314606023704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9167405115698908</v>
+        <v>0.9358768945951408</v>
       </c>
       <c r="D5">
-        <v>0.930024777764588</v>
+        <v>0.9436935413053483</v>
       </c>
       <c r="E5">
-        <v>0.933557590411301</v>
+        <v>0.9485254090846844</v>
       </c>
       <c r="F5">
-        <v>0.8941295767877893</v>
+        <v>0.9576792784426648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032884044489485</v>
+        <v>1.035861129508444</v>
       </c>
       <c r="J5">
-        <v>0.9380219111299839</v>
+        <v>0.9565715012612153</v>
       </c>
       <c r="K5">
-        <v>0.940800103973952</v>
+        <v>0.9542795543516133</v>
       </c>
       <c r="L5">
-        <v>0.9442833163735735</v>
+        <v>0.9590461411013124</v>
       </c>
       <c r="M5">
-        <v>0.9054372605431815</v>
+        <v>0.968078600854253</v>
       </c>
       <c r="N5">
-        <v>0.9393540098364054</v>
+        <v>0.9579299425132911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9176763574864858</v>
+        <v>0.9368129701476254</v>
       </c>
       <c r="D6">
-        <v>0.9308613578178976</v>
+        <v>0.944589861970096</v>
       </c>
       <c r="E6">
-        <v>0.9343510942694505</v>
+        <v>0.9493341181294768</v>
       </c>
       <c r="F6">
-        <v>0.8952467308640237</v>
+        <v>0.9585218423444992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033059069807392</v>
+        <v>1.03606125548512</v>
       </c>
       <c r="J6">
-        <v>0.9388409565547853</v>
+        <v>0.9573952112741967</v>
       </c>
       <c r="K6">
-        <v>0.9415833128352108</v>
+        <v>0.955122952178974</v>
       </c>
       <c r="L6">
-        <v>0.9450243769532887</v>
+        <v>0.9598035360993601</v>
       </c>
       <c r="M6">
-        <v>0.9064931096060451</v>
+        <v>0.9688701975619376</v>
       </c>
       <c r="N6">
-        <v>0.940174218399656</v>
+        <v>0.9587548222889717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9111345769622723</v>
+        <v>0.9302821962309857</v>
       </c>
       <c r="D7">
-        <v>0.9250145592995677</v>
+        <v>0.938337445913305</v>
       </c>
       <c r="E7">
-        <v>0.9288058930070122</v>
+        <v>0.9436928324321249</v>
       </c>
       <c r="F7">
-        <v>0.8874347319104575</v>
+        <v>0.952645276457094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031832624824566</v>
+        <v>1.034662618933397</v>
       </c>
       <c r="J7">
-        <v>0.9331141799728059</v>
+        <v>0.9516477937836259</v>
       </c>
       <c r="K7">
-        <v>0.9361076457616014</v>
+        <v>0.949238555591101</v>
       </c>
       <c r="L7">
-        <v>0.9398436372327822</v>
+        <v>0.9545187015734921</v>
       </c>
       <c r="M7">
-        <v>0.8991092194857927</v>
+        <v>0.9633477464699089</v>
       </c>
       <c r="N7">
-        <v>0.9344393091380596</v>
+        <v>0.9529992428063262</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8806054454975417</v>
+        <v>0.9002293160335425</v>
       </c>
       <c r="D8">
-        <v>0.897764859378314</v>
+        <v>0.9095974128654597</v>
       </c>
       <c r="E8">
-        <v>0.9029784122671684</v>
+        <v>0.9177632377064282</v>
       </c>
       <c r="F8">
-        <v>0.8508659171926191</v>
+        <v>0.9256666295444888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026041531943029</v>
+        <v>1.028169484237654</v>
       </c>
       <c r="J8">
-        <v>0.9063516505519364</v>
+        <v>0.9251885466320354</v>
       </c>
       <c r="K8">
-        <v>0.9105342396241812</v>
+        <v>0.9221591991457986</v>
       </c>
       <c r="L8">
-        <v>0.9156554553355948</v>
+        <v>0.9301857870494722</v>
       </c>
       <c r="M8">
-        <v>0.8645330721149365</v>
+        <v>0.9379574267951024</v>
       </c>
       <c r="N8">
-        <v>0.9076387738557075</v>
+        <v>0.9265024204888627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8045160326134229</v>
+        <v>0.8298453878761286</v>
       </c>
       <c r="D9">
-        <v>0.8301645936776101</v>
+        <v>0.8425338776710978</v>
       </c>
       <c r="E9">
-        <v>0.8390277388102775</v>
+        <v>0.8572995448800851</v>
       </c>
       <c r="F9">
-        <v>0.7582957118526076</v>
+        <v>0.8630720683317342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011557105498327</v>
+        <v>1.012837043349872</v>
       </c>
       <c r="J9">
-        <v>0.8395328821224327</v>
+        <v>0.8632627130694538</v>
       </c>
       <c r="K9">
-        <v>0.8467814765295675</v>
+        <v>0.8588291689569627</v>
       </c>
       <c r="L9">
-        <v>0.8554128838602951</v>
+        <v>0.8732272664606235</v>
       </c>
       <c r="M9">
-        <v>0.7770722223798655</v>
+        <v>0.8788606782329053</v>
       </c>
       <c r="N9">
-        <v>0.840725115110814</v>
+        <v>0.8644886451396295</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D10">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E10">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F10">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J10">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K10">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L10">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M10">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N10">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D11">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E11">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F11">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J11">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K11">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L11">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M11">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N11">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D12">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E12">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F12">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J12">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K12">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L12">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M12">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N12">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D13">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E13">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F13">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J13">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K13">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L13">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M13">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N13">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D14">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E14">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F14">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J14">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K14">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L14">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M14">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N14">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8045160326134229</v>
+        <v>0.7490187057474431</v>
       </c>
       <c r="D15">
-        <v>0.8301645936776101</v>
+        <v>0.7660938255781022</v>
       </c>
       <c r="E15">
-        <v>0.8390277388102775</v>
+        <v>0.7885534851190766</v>
       </c>
       <c r="F15">
-        <v>0.7582957118526076</v>
+        <v>0.7927683194010984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011557105498327</v>
+        <v>0.9955347411395069</v>
       </c>
       <c r="J15">
-        <v>0.8395328821224327</v>
+        <v>0.7925253089128093</v>
       </c>
       <c r="K15">
-        <v>0.8467814765295675</v>
+        <v>0.7865251706791561</v>
       </c>
       <c r="L15">
-        <v>0.8554128838602951</v>
+        <v>0.8081838894256443</v>
       </c>
       <c r="M15">
-        <v>0.7770722223798655</v>
+        <v>0.8122554517862288</v>
       </c>
       <c r="N15">
-        <v>0.840725115110814</v>
+        <v>0.7936507857553891</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8045160326134229</v>
+        <v>0.5486984623944057</v>
       </c>
       <c r="D16">
-        <v>0.8301645936776101</v>
+        <v>0.581811449417449</v>
       </c>
       <c r="E16">
-        <v>0.8390277388102775</v>
+        <v>0.6247896306118078</v>
       </c>
       <c r="F16">
-        <v>0.7582957118526076</v>
+        <v>0.6333497964155586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011557105498327</v>
+        <v>0.9572848973095704</v>
       </c>
       <c r="J16">
-        <v>0.8395328821224327</v>
+        <v>0.6222625102383039</v>
       </c>
       <c r="K16">
-        <v>0.8467814765295675</v>
+        <v>0.6124136285206606</v>
       </c>
       <c r="L16">
-        <v>0.8554128838602951</v>
+        <v>0.6522013333451011</v>
       </c>
       <c r="M16">
-        <v>0.7770722223798655</v>
+        <v>0.6602017272932753</v>
       </c>
       <c r="N16">
-        <v>0.840725115110814</v>
+        <v>0.6231461943773499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8045160326134229</v>
+        <v>0.517108838413791</v>
       </c>
       <c r="D17">
-        <v>0.8301645936776101</v>
+        <v>0.5540112133605187</v>
       </c>
       <c r="E17">
-        <v>0.8390277388102775</v>
+        <v>0.600554726584358</v>
       </c>
       <c r="F17">
-        <v>0.7582957118526076</v>
+        <v>0.6116063760757436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011557105498327</v>
+        <v>0.9521778594898298</v>
       </c>
       <c r="J17">
-        <v>0.8395328821224327</v>
+        <v>0.5966725367967757</v>
       </c>
       <c r="K17">
-        <v>0.8467814765295675</v>
+        <v>0.5862221604676479</v>
       </c>
       <c r="L17">
-        <v>0.8554128838602951</v>
+        <v>0.6289382186155386</v>
       </c>
       <c r="M17">
-        <v>0.7770722223798655</v>
+        <v>0.6392066890695046</v>
       </c>
       <c r="N17">
-        <v>0.840725115110814</v>
+        <v>0.5975198802383237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8045160326134229</v>
+        <v>0.5011962542470401</v>
       </c>
       <c r="D18">
-        <v>0.8301645936776101</v>
+        <v>0.5402284373874552</v>
       </c>
       <c r="E18">
-        <v>0.8390277388102775</v>
+        <v>0.5886149940516822</v>
       </c>
       <c r="F18">
-        <v>0.7582957118526076</v>
+        <v>0.601191828247346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011557105498327</v>
+        <v>0.9497284934926568</v>
       </c>
       <c r="J18">
-        <v>0.8395328821224327</v>
+        <v>0.5839921473842268</v>
       </c>
       <c r="K18">
-        <v>0.8467814765295675</v>
+        <v>0.5732427152603761</v>
       </c>
       <c r="L18">
-        <v>0.8554128838602951</v>
+        <v>0.6174460224151003</v>
       </c>
       <c r="M18">
-        <v>0.7770722223798655</v>
+        <v>0.6290975373427069</v>
       </c>
       <c r="N18">
-        <v>0.840725115110814</v>
+        <v>0.5848214832183478</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8045160326134229</v>
+        <v>0.4960638500305694</v>
       </c>
       <c r="D19">
-        <v>0.8301645936776101</v>
+        <v>0.535819163854973</v>
       </c>
       <c r="E19">
-        <v>0.8390277388102775</v>
+        <v>0.584807206420019</v>
       </c>
       <c r="F19">
-        <v>0.7582957118526076</v>
+        <v>0.5979174736136149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011557105498327</v>
+        <v>0.9489570496183383</v>
       </c>
       <c r="J19">
-        <v>0.8395328821224327</v>
+        <v>0.5799359075932697</v>
       </c>
       <c r="K19">
-        <v>0.8467814765295675</v>
+        <v>0.5690908481871333</v>
       </c>
       <c r="L19">
-        <v>0.8554128838602951</v>
+        <v>0.6137757362304506</v>
       </c>
       <c r="M19">
-        <v>0.7770722223798655</v>
+        <v>0.6259101582217907</v>
       </c>
       <c r="N19">
-        <v>0.840725115110814</v>
+        <v>0.5807594831016306</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D20">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E20">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F20">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J20">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K20">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L20">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M20">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N20">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D21">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E21">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F21">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J21">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K21">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L21">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M21">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N21">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D22">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E22">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F22">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J22">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K22">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L22">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M22">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N22">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D23">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E23">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F23">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J23">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K23">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L23">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M23">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N23">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D24">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E24">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F24">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J24">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K24">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L24">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M24">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N24">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8045160326134229</v>
+        <v>0.5201995072572295</v>
       </c>
       <c r="D25">
-        <v>0.8301645936776101</v>
+        <v>0.5567066629126177</v>
       </c>
       <c r="E25">
-        <v>0.8390277388102775</v>
+        <v>0.6028959632679428</v>
       </c>
       <c r="F25">
-        <v>0.7582957118526076</v>
+        <v>0.6136732286317544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011557105498327</v>
+        <v>0.9526634459028157</v>
       </c>
       <c r="J25">
-        <v>0.8395328821224327</v>
+        <v>0.599152766691684</v>
       </c>
       <c r="K25">
-        <v>0.8467814765295675</v>
+        <v>0.5887608519486993</v>
       </c>
       <c r="L25">
-        <v>0.8554128838602951</v>
+        <v>0.6311890347310857</v>
       </c>
       <c r="M25">
-        <v>0.7770722223798655</v>
+        <v>0.6412082927438491</v>
       </c>
       <c r="N25">
-        <v>0.840725115110814</v>
+        <v>0.6000036323441692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8916199884843218</v>
+        <v>0.9851479119317048</v>
       </c>
       <c r="D2">
-        <v>0.9013745992867798</v>
+        <v>0.9936813056681297</v>
       </c>
       <c r="E2">
-        <v>0.9103455914413416</v>
+        <v>0.9936351740393508</v>
       </c>
       <c r="F2">
-        <v>0.9179608808063391</v>
+        <v>0.9611967004875364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026297492445537</v>
+        <v>1.041415624077375</v>
       </c>
       <c r="J2">
-        <v>0.9176077085328103</v>
+        <v>1.007782106284082</v>
       </c>
       <c r="K2">
-        <v>0.9144034179644217</v>
+        <v>1.005229377553505</v>
       </c>
       <c r="L2">
-        <v>0.9232134144184933</v>
+        <v>1.005183899024079</v>
       </c>
       <c r="M2">
-        <v>0.9306952333793135</v>
+        <v>0.9732244708863054</v>
       </c>
       <c r="N2">
-        <v>0.9189108167300006</v>
+        <v>1.009213272469229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.915992074759123</v>
+        <v>0.9907901262114314</v>
       </c>
       <c r="D3">
-        <v>0.9246648120006098</v>
+        <v>0.9986511524774401</v>
       </c>
       <c r="E3">
-        <v>0.9313567407039526</v>
+        <v>0.9981937242184319</v>
       </c>
       <c r="F3">
-        <v>0.93980275799755</v>
+        <v>0.9696542270418707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03158505149168</v>
+        <v>1.042953195633568</v>
       </c>
       <c r="J3">
-        <v>0.9390679603977553</v>
+        <v>1.011535049777795</v>
       </c>
       <c r="K3">
-        <v>0.9363618948762259</v>
+        <v>1.00930132120242</v>
       </c>
       <c r="L3">
-        <v>0.9429504079370419</v>
+        <v>1.008849768971542</v>
       </c>
       <c r="M3">
-        <v>0.9512685776511385</v>
+        <v>0.9806906989580647</v>
       </c>
       <c r="N3">
-        <v>0.9404015446141205</v>
+        <v>1.012971545573171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9302052934912898</v>
+        <v>0.9943404449270653</v>
       </c>
       <c r="D4">
-        <v>0.9382638349704969</v>
+        <v>1.001782690804674</v>
       </c>
       <c r="E4">
-        <v>0.9436264163451281</v>
+        <v>1.00106849871376</v>
       </c>
       <c r="F4">
-        <v>0.9525761030543084</v>
+        <v>0.9749630987258205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03464611712676</v>
+        <v>1.043901500261886</v>
       </c>
       <c r="J4">
-        <v>0.9515801077016702</v>
+        <v>1.013890039094316</v>
       </c>
       <c r="K4">
-        <v>0.9491692616873382</v>
+        <v>1.011859647831524</v>
       </c>
       <c r="L4">
-        <v>0.9544564614890246</v>
+        <v>1.011154044981601</v>
       </c>
       <c r="M4">
-        <v>0.9632827227119319</v>
+        <v>0.9853733941794847</v>
       </c>
       <c r="N4">
-        <v>0.9529314606023704</v>
+        <v>1.015329879244643</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9358768945951408</v>
+        <v>0.9958100708661969</v>
       </c>
       <c r="D5">
-        <v>0.9436935413053483</v>
+        <v>1.003079954240591</v>
       </c>
       <c r="E5">
-        <v>0.9485254090846844</v>
+        <v>1.002259951869601</v>
       </c>
       <c r="F5">
-        <v>0.9576792784426648</v>
+        <v>0.9771580643825406</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035861129508444</v>
+        <v>1.044289367549276</v>
       </c>
       <c r="J5">
-        <v>0.9565715012612153</v>
+        <v>1.014863278760572</v>
       </c>
       <c r="K5">
-        <v>0.9542795543516133</v>
+        <v>1.012917677579694</v>
       </c>
       <c r="L5">
-        <v>0.9590461411013124</v>
+        <v>1.012107259999541</v>
       </c>
       <c r="M5">
-        <v>0.968078600854253</v>
+        <v>0.987308473660456</v>
       </c>
       <c r="N5">
-        <v>0.9579299425132911</v>
+        <v>1.016304501022857</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9368129701476254</v>
+        <v>0.9960555148055743</v>
       </c>
       <c r="D6">
-        <v>0.944589861970096</v>
+        <v>1.003296668601443</v>
       </c>
       <c r="E6">
-        <v>0.9493341181294768</v>
+        <v>1.002459022261252</v>
       </c>
       <c r="F6">
-        <v>0.9585218423444992</v>
+        <v>0.9775245093049207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03606125548512</v>
+        <v>1.04435386873806</v>
       </c>
       <c r="J6">
-        <v>0.9573952112741967</v>
+        <v>1.015025726456116</v>
       </c>
       <c r="K6">
-        <v>0.955122952178974</v>
+        <v>1.013094322486991</v>
       </c>
       <c r="L6">
-        <v>0.9598035360993601</v>
+        <v>1.012266419984267</v>
       </c>
       <c r="M6">
-        <v>0.9688701975619376</v>
+        <v>0.9876314714240624</v>
       </c>
       <c r="N6">
-        <v>0.9587548222889717</v>
+        <v>1.016467179412762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9302821962309857</v>
+        <v>0.9943601707768591</v>
       </c>
       <c r="D7">
-        <v>0.938337445913305</v>
+        <v>1.001800099289056</v>
       </c>
       <c r="E7">
-        <v>0.9436928324321249</v>
+        <v>1.001084485113552</v>
       </c>
       <c r="F7">
-        <v>0.952645276457094</v>
+        <v>0.9749925699889591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034662618933397</v>
+        <v>1.043906724946918</v>
       </c>
       <c r="J7">
-        <v>0.9516477937836259</v>
+        <v>1.013903108589319</v>
       </c>
       <c r="K7">
-        <v>0.949238555591101</v>
+        <v>1.011873852962779</v>
       </c>
       <c r="L7">
-        <v>0.9545187015734921</v>
+        <v>1.011166841882784</v>
       </c>
       <c r="M7">
-        <v>0.9633477464699089</v>
+        <v>0.985399380003798</v>
       </c>
       <c r="N7">
-        <v>0.9529992428063262</v>
+        <v>1.015342967299828</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9002293160335425</v>
+        <v>0.9870762687995414</v>
       </c>
       <c r="D8">
-        <v>0.9095974128654597</v>
+        <v>0.995378931283739</v>
       </c>
       <c r="E8">
-        <v>0.9177632377064282</v>
+        <v>0.9951917899101127</v>
       </c>
       <c r="F8">
-        <v>0.9256666295444888</v>
+        <v>0.9640903154528599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028169484237654</v>
+        <v>1.041945128518359</v>
       </c>
       <c r="J8">
-        <v>0.9251885466320354</v>
+        <v>1.009066120578415</v>
       </c>
       <c r="K8">
-        <v>0.9221591991457986</v>
+        <v>1.006621863880282</v>
       </c>
       <c r="L8">
-        <v>0.9301857870494722</v>
+        <v>1.006437287794409</v>
       </c>
       <c r="M8">
-        <v>0.9379574267951024</v>
+        <v>0.9757797256668174</v>
       </c>
       <c r="N8">
-        <v>0.9265024204888627</v>
+        <v>1.010499110211138</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8298453878761286</v>
+        <v>0.973414166913155</v>
       </c>
       <c r="D9">
-        <v>0.8425338776710978</v>
+        <v>0.9833719949572638</v>
       </c>
       <c r="E9">
-        <v>0.8572995448800851</v>
+        <v>0.9841933578048324</v>
       </c>
       <c r="F9">
-        <v>0.8630720683317342</v>
+        <v>0.9435095694831899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.012837043349872</v>
+        <v>1.038113876800651</v>
       </c>
       <c r="J9">
-        <v>0.8632627130694538</v>
+        <v>0.9999419792865297</v>
       </c>
       <c r="K9">
-        <v>0.8588291689569627</v>
+        <v>0.99674073675193</v>
       </c>
       <c r="L9">
-        <v>0.8732272664606235</v>
+        <v>0.997548200609646</v>
       </c>
       <c r="M9">
-        <v>0.8788606782329053</v>
+        <v>0.9575908643542356</v>
       </c>
       <c r="N9">
-        <v>0.8644886451396295</v>
+        <v>1.001362011592065</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7490187057474431</v>
+        <v>0.9636618141438974</v>
       </c>
       <c r="D10">
-        <v>0.7660938255781022</v>
+        <v>0.9748296754387862</v>
       </c>
       <c r="E10">
-        <v>0.7885534851190766</v>
+        <v>0.9763839225453086</v>
       </c>
       <c r="F10">
-        <v>0.7927683194010984</v>
+        <v>0.9286843754660874</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9955347411395069</v>
+        <v>1.035280122574395</v>
       </c>
       <c r="J10">
-        <v>0.7925253089128093</v>
+        <v>0.9933952225895887</v>
       </c>
       <c r="K10">
-        <v>0.7865251706791561</v>
+        <v>0.9896687617984011</v>
       </c>
       <c r="L10">
-        <v>0.8081838894256443</v>
+        <v>0.9911930782910792</v>
       </c>
       <c r="M10">
-        <v>0.8122554517862288</v>
+        <v>0.9444728085567362</v>
       </c>
       <c r="N10">
-        <v>0.7936507857553891</v>
+        <v>0.9948059577496904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7490187057474431</v>
+        <v>0.9592632882824483</v>
       </c>
       <c r="D11">
-        <v>0.7660938255781022</v>
+        <v>0.9709844966052503</v>
       </c>
       <c r="E11">
-        <v>0.7885534851190766</v>
+        <v>0.9728726936438024</v>
       </c>
       <c r="F11">
-        <v>0.7927683194010984</v>
+        <v>0.9219540049593689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9955347411395069</v>
+        <v>1.033979582133178</v>
       </c>
       <c r="J11">
-        <v>0.7925253089128093</v>
+        <v>0.9904347592813808</v>
       </c>
       <c r="K11">
-        <v>0.7865251706791561</v>
+        <v>0.9864751624686007</v>
       </c>
       <c r="L11">
-        <v>0.8081838894256443</v>
+        <v>0.9883249881345011</v>
       </c>
       <c r="M11">
-        <v>0.8122554517862288</v>
+        <v>0.9385148083288783</v>
       </c>
       <c r="N11">
-        <v>0.7936507857553891</v>
+        <v>0.9918412902440152</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7490187057474431</v>
+        <v>0.9576008558731419</v>
       </c>
       <c r="D12">
-        <v>0.7660938255781022</v>
+        <v>0.9695324187514446</v>
       </c>
       <c r="E12">
-        <v>0.7885534851190766</v>
+        <v>0.9715473748075423</v>
       </c>
       <c r="F12">
-        <v>0.7927683194010984</v>
+        <v>0.9194024408169239</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9955347411395069</v>
+        <v>1.033484758041744</v>
       </c>
       <c r="J12">
-        <v>0.7925253089128093</v>
+        <v>0.9893147040322798</v>
       </c>
       <c r="K12">
-        <v>0.7865251706791561</v>
+        <v>0.9852675715903436</v>
       </c>
       <c r="L12">
-        <v>0.8081838894256443</v>
+        <v>0.9872407661482777</v>
       </c>
       <c r="M12">
-        <v>0.8122554517862288</v>
+        <v>0.9362557750096092</v>
       </c>
       <c r="N12">
-        <v>0.7936507857553891</v>
+        <v>0.9907196443879884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7490187057474431</v>
+        <v>0.9579587873439913</v>
       </c>
       <c r="D13">
-        <v>0.7660938255781022</v>
+        <v>0.9698450035163897</v>
       </c>
       <c r="E13">
-        <v>0.7885534851190766</v>
+        <v>0.9718326426199885</v>
       </c>
       <c r="F13">
-        <v>0.7927683194010984</v>
+        <v>0.9199521814049252</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9955347411395069</v>
+        <v>1.033591443219108</v>
       </c>
       <c r="J13">
-        <v>0.7925253089128093</v>
+        <v>0.9895559097656824</v>
       </c>
       <c r="K13">
-        <v>0.7865251706791561</v>
+        <v>0.9855275978690033</v>
       </c>
       <c r="L13">
-        <v>0.8081838894256443</v>
+        <v>0.9874742147201295</v>
       </c>
       <c r="M13">
-        <v>0.8122554517862288</v>
+        <v>0.9367424999672628</v>
       </c>
       <c r="N13">
-        <v>0.7936507857553891</v>
+        <v>0.990961192661199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7490187057474431</v>
+        <v>0.9591264688816653</v>
       </c>
       <c r="D14">
-        <v>0.7660938255781022</v>
+        <v>0.9708649644252629</v>
       </c>
       <c r="E14">
-        <v>0.7885534851190766</v>
+        <v>0.9727635826411301</v>
       </c>
       <c r="F14">
-        <v>0.7927683194010984</v>
+        <v>0.9217441753661809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9955347411395069</v>
+        <v>1.033938923791536</v>
       </c>
       <c r="J14">
-        <v>0.7925253089128093</v>
+        <v>0.9903426009760063</v>
       </c>
       <c r="K14">
-        <v>0.7865251706791561</v>
+        <v>0.9863757880818965</v>
       </c>
       <c r="L14">
-        <v>0.8081838894256443</v>
+        <v>0.9882357600808207</v>
       </c>
       <c r="M14">
-        <v>0.8122554517862288</v>
+        <v>0.9383290402559268</v>
       </c>
       <c r="N14">
-        <v>0.7936507857553891</v>
+        <v>0.9917490010632763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7490187057474431</v>
+        <v>0.9598420517648231</v>
       </c>
       <c r="D15">
-        <v>0.7660938255781022</v>
+        <v>0.9714901828415444</v>
       </c>
       <c r="E15">
-        <v>0.7885534851190766</v>
+        <v>0.9733343192014531</v>
       </c>
       <c r="F15">
-        <v>0.7927683194010984</v>
+        <v>0.9228412857285322</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9955347411395069</v>
+        <v>1.034151439184337</v>
       </c>
       <c r="J15">
-        <v>0.7925253089128093</v>
+        <v>0.9908245543265779</v>
       </c>
       <c r="K15">
-        <v>0.7865251706791561</v>
+        <v>0.9868955060838992</v>
       </c>
       <c r="L15">
-        <v>0.8081838894256443</v>
+        <v>0.988702425456048</v>
       </c>
       <c r="M15">
-        <v>0.8122554517862288</v>
+        <v>0.9393003322625509</v>
       </c>
       <c r="N15">
-        <v>0.7936507857553891</v>
+        <v>0.9922316388428865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.5486984623944057</v>
+        <v>0.9639498440571208</v>
       </c>
       <c r="D16">
-        <v>0.581811449417449</v>
+        <v>0.9750816339532393</v>
       </c>
       <c r="E16">
-        <v>0.6247896306118078</v>
+        <v>0.9766140859473359</v>
       </c>
       <c r="F16">
-        <v>0.6333497964155586</v>
+        <v>0.9291240948999626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9572848973095704</v>
+        <v>1.035364828477176</v>
       </c>
       <c r="J16">
-        <v>0.6222625102383039</v>
+        <v>0.9935889249506881</v>
       </c>
       <c r="K16">
-        <v>0.6124136285206606</v>
+        <v>0.9898778096129147</v>
       </c>
       <c r="L16">
-        <v>0.6522013333451011</v>
+        <v>0.991380857154698</v>
       </c>
       <c r="M16">
-        <v>0.6602017272932753</v>
+        <v>0.9448620207769511</v>
       </c>
       <c r="N16">
-        <v>0.6231461943773499</v>
+        <v>0.9949999351903606</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.517108838413791</v>
+        <v>0.9664780250372258</v>
       </c>
       <c r="D17">
-        <v>0.5540112133605187</v>
+        <v>0.9772940656228253</v>
       </c>
       <c r="E17">
-        <v>0.600554726584358</v>
+        <v>0.9786355991694023</v>
       </c>
       <c r="F17">
-        <v>0.6116063760757436</v>
+        <v>0.9329786431232114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9521778594898298</v>
+        <v>1.036105806389651</v>
       </c>
       <c r="J17">
-        <v>0.5966725367967757</v>
+        <v>0.9952882751411125</v>
       </c>
       <c r="K17">
-        <v>0.5862221604676479</v>
+        <v>0.9917122798643417</v>
       </c>
       <c r="L17">
-        <v>0.6289382186155386</v>
+        <v>0.9930288885074771</v>
       </c>
       <c r="M17">
-        <v>0.6392066890695046</v>
+        <v>0.9482735409349302</v>
       </c>
       <c r="N17">
-        <v>0.5975198802383237</v>
+        <v>0.9967016986529736</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.5011962542470401</v>
+        <v>0.9679358824296203</v>
       </c>
       <c r="D18">
-        <v>0.5402284373874552</v>
+        <v>0.9785705584609641</v>
       </c>
       <c r="E18">
-        <v>0.5886149940516822</v>
+        <v>0.9798023184939467</v>
       </c>
       <c r="F18">
-        <v>0.601191828247346</v>
+        <v>0.9351972968085478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9497284934926568</v>
+        <v>1.03653096569705</v>
       </c>
       <c r="J18">
-        <v>0.5839921473842268</v>
+        <v>0.9962674641098601</v>
       </c>
       <c r="K18">
-        <v>0.5732427152603761</v>
+        <v>0.9927697367092013</v>
       </c>
       <c r="L18">
-        <v>0.6174460224151003</v>
+        <v>0.9939790422550797</v>
       </c>
       <c r="M18">
-        <v>0.6290975373427069</v>
+        <v>0.9502369348949656</v>
       </c>
       <c r="N18">
-        <v>0.5848214832183478</v>
+        <v>0.9976822781823717</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.4960638500305694</v>
+        <v>0.9684301899818997</v>
       </c>
       <c r="D19">
-        <v>0.535819163854973</v>
+        <v>0.9790034900523782</v>
       </c>
       <c r="E19">
-        <v>0.584807206420019</v>
+        <v>0.9801980829219454</v>
       </c>
       <c r="F19">
-        <v>0.5979174736136149</v>
+        <v>0.9359489104147016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9489570496183383</v>
+        <v>1.036674759781345</v>
       </c>
       <c r="J19">
-        <v>0.5799359075932697</v>
+        <v>0.9965993479239907</v>
       </c>
       <c r="K19">
-        <v>0.5690908481871333</v>
+        <v>0.9931282176380356</v>
       </c>
       <c r="L19">
-        <v>0.6137757362304506</v>
+        <v>0.9943011750480847</v>
       </c>
       <c r="M19">
-        <v>0.6259101582217907</v>
+        <v>0.9509020277122513</v>
       </c>
       <c r="N19">
-        <v>0.5807594831016306</v>
+        <v>0.9980146333095857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.5201995072572295</v>
+        <v>0.9662085268320606</v>
       </c>
       <c r="D20">
-        <v>0.5567066629126177</v>
+        <v>0.9770581512807043</v>
       </c>
       <c r="E20">
-        <v>0.6028959632679428</v>
+        <v>0.9784200030207681</v>
       </c>
       <c r="F20">
-        <v>0.6136732286317544</v>
+        <v>0.9325681853956657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9526634459028157</v>
+        <v>1.036027039513527</v>
       </c>
       <c r="J20">
-        <v>0.599152766691684</v>
+        <v>0.9951072039654701</v>
       </c>
       <c r="K20">
-        <v>0.5887608519486993</v>
+        <v>0.9915167685468903</v>
       </c>
       <c r="L20">
-        <v>0.6311890347310857</v>
+        <v>0.9928532297041768</v>
       </c>
       <c r="M20">
-        <v>0.6412082927438491</v>
+        <v>0.9479102855840438</v>
       </c>
       <c r="N20">
-        <v>0.6000036323441692</v>
+        <v>0.9965203703354927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.5201995072572295</v>
+        <v>0.9587834252047835</v>
       </c>
       <c r="D21">
-        <v>0.5567066629126177</v>
+        <v>0.9705652843610341</v>
       </c>
       <c r="E21">
-        <v>0.6028959632679428</v>
+        <v>0.9724900401472694</v>
       </c>
       <c r="F21">
-        <v>0.6136732286317544</v>
+        <v>0.921217945138303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9526634459028157</v>
+        <v>1.033836929729337</v>
       </c>
       <c r="J21">
-        <v>0.599152766691684</v>
+        <v>0.9901115165832564</v>
       </c>
       <c r="K21">
-        <v>0.5887608519486993</v>
+        <v>0.9861266203624379</v>
       </c>
       <c r="L21">
-        <v>0.6311890347310857</v>
+        <v>0.9880120375417432</v>
       </c>
       <c r="M21">
-        <v>0.6412082927438491</v>
+        <v>0.9378631496000958</v>
       </c>
       <c r="N21">
-        <v>0.6000036323441692</v>
+        <v>0.9915175885041829</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.5201995072572295</v>
+        <v>0.9539480461747496</v>
       </c>
       <c r="D22">
-        <v>0.5567066629126177</v>
+        <v>0.9663441427204508</v>
       </c>
       <c r="E22">
-        <v>0.6028959632679428</v>
+        <v>0.968638658409784</v>
       </c>
       <c r="F22">
-        <v>0.6136732286317544</v>
+        <v>0.9137800642628749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9526634459028157</v>
+        <v>1.032391551074235</v>
       </c>
       <c r="J22">
-        <v>0.599152766691684</v>
+        <v>0.986851556376701</v>
       </c>
       <c r="K22">
-        <v>0.5887608519486993</v>
+        <v>0.9826131704592371</v>
       </c>
       <c r="L22">
-        <v>0.6311890347310857</v>
+        <v>0.9848580856353545</v>
       </c>
       <c r="M22">
-        <v>0.6412082927438491</v>
+        <v>0.9312776062146382</v>
       </c>
       <c r="N22">
-        <v>0.6000036323441692</v>
+        <v>0.9882529987802117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.5201995072572295</v>
+        <v>0.9565280127162514</v>
       </c>
       <c r="D23">
-        <v>0.5567066629126177</v>
+        <v>0.9685956794161964</v>
       </c>
       <c r="E23">
-        <v>0.6028959632679428</v>
+        <v>0.9706925957149337</v>
       </c>
       <c r="F23">
-        <v>0.6136732286317544</v>
+        <v>0.9177534317457485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9526634459028157</v>
+        <v>1.033164512251374</v>
       </c>
       <c r="J23">
-        <v>0.599152766691684</v>
+        <v>0.9885915618592216</v>
       </c>
       <c r="K23">
-        <v>0.5887608519486993</v>
+        <v>0.9844881039212493</v>
       </c>
       <c r="L23">
-        <v>0.6311890347310857</v>
+        <v>0.9865410121654441</v>
       </c>
       <c r="M23">
-        <v>0.6412082927438491</v>
+        <v>0.9347957564268832</v>
       </c>
       <c r="N23">
-        <v>0.6000036323441692</v>
+        <v>0.9899954752700986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.5201995072572295</v>
+        <v>0.966330353185162</v>
       </c>
       <c r="D24">
-        <v>0.5567066629126177</v>
+        <v>0.9771647938880621</v>
       </c>
       <c r="E24">
-        <v>0.6028959632679428</v>
+        <v>0.9785174598262428</v>
       </c>
       <c r="F24">
-        <v>0.6136732286317544</v>
+        <v>0.9327537448072651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9526634459028157</v>
+        <v>1.036062652579842</v>
       </c>
       <c r="J24">
-        <v>0.599152766691684</v>
+        <v>0.9951890592473651</v>
       </c>
       <c r="K24">
-        <v>0.5887608519486993</v>
+        <v>0.991605150386771</v>
       </c>
       <c r="L24">
-        <v>0.6311890347310857</v>
+        <v>0.9929326366005412</v>
       </c>
       <c r="M24">
-        <v>0.6412082927438491</v>
+        <v>0.9480745065840737</v>
       </c>
       <c r="N24">
-        <v>0.6000036323441692</v>
+        <v>0.9966023418612768</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.5201995072572295</v>
+        <v>0.9770526686970927</v>
       </c>
       <c r="D25">
-        <v>0.5567066629126177</v>
+        <v>0.9865650759404426</v>
       </c>
       <c r="E25">
-        <v>0.6028959632679428</v>
+        <v>0.9871157323676926</v>
       </c>
       <c r="F25">
-        <v>0.6136732286317544</v>
+        <v>0.9490100487234997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9526634459028157</v>
+        <v>1.039151416237174</v>
       </c>
       <c r="J25">
-        <v>0.599152766691684</v>
+        <v>1.002377773598299</v>
       </c>
       <c r="K25">
-        <v>0.5887608519486993</v>
+        <v>0.9993755947030932</v>
       </c>
       <c r="L25">
-        <v>0.6311890347310857</v>
+        <v>0.9999174079897198</v>
       </c>
       <c r="M25">
-        <v>0.6412082927438491</v>
+        <v>0.9624550944572589</v>
       </c>
       <c r="N25">
-        <v>0.6000036323441692</v>
+        <v>1.003801265011146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9851479119317048</v>
+        <v>1.022927288344651</v>
       </c>
       <c r="D2">
-        <v>0.9936813056681297</v>
+        <v>1.025571941809823</v>
       </c>
       <c r="E2">
-        <v>0.9936351740393508</v>
+        <v>1.023608011796151</v>
       </c>
       <c r="F2">
-        <v>0.9611967004875364</v>
+        <v>1.021383749159382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041415624077375</v>
+        <v>1.029462288934039</v>
       </c>
       <c r="J2">
-        <v>1.007782106284082</v>
+        <v>1.028110375872427</v>
       </c>
       <c r="K2">
-        <v>1.005229377553505</v>
+        <v>1.028397121142402</v>
       </c>
       <c r="L2">
-        <v>1.005183899024079</v>
+        <v>1.026438950580855</v>
       </c>
       <c r="M2">
-        <v>0.9732244708863054</v>
+        <v>1.024221239959002</v>
       </c>
       <c r="N2">
-        <v>1.009213272469229</v>
+        <v>1.029570410532077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9907901262114314</v>
+        <v>1.024048684826391</v>
       </c>
       <c r="D3">
-        <v>0.9986511524774401</v>
+        <v>1.026605898340174</v>
       </c>
       <c r="E3">
-        <v>0.9981937242184319</v>
+        <v>1.024563195048109</v>
       </c>
       <c r="F3">
-        <v>0.9696542270418707</v>
+        <v>1.023145456043784</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042953195633568</v>
+        <v>1.029652169397116</v>
       </c>
       <c r="J3">
-        <v>1.011535049777795</v>
+        <v>1.028869139835098</v>
       </c>
       <c r="K3">
-        <v>1.00930132120242</v>
+        <v>1.029237793935099</v>
       </c>
       <c r="L3">
-        <v>1.008849768971542</v>
+        <v>1.027200644748846</v>
       </c>
       <c r="M3">
-        <v>0.9806906989580647</v>
+        <v>1.025786774690352</v>
       </c>
       <c r="N3">
-        <v>1.012971545573171</v>
+        <v>1.030330252026604</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9943404449270653</v>
+        <v>1.024773206626803</v>
       </c>
       <c r="D4">
-        <v>1.001782690804674</v>
+        <v>1.027274147201752</v>
       </c>
       <c r="E4">
-        <v>1.00106849871376</v>
+        <v>1.025180712360282</v>
       </c>
       <c r="F4">
-        <v>0.9749630987258205</v>
+        <v>1.024284069180329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043901500261886</v>
+        <v>1.029772460393206</v>
       </c>
       <c r="J4">
-        <v>1.013890039094316</v>
+        <v>1.029358510568884</v>
       </c>
       <c r="K4">
-        <v>1.011859647831524</v>
+        <v>1.029780380835498</v>
       </c>
       <c r="L4">
-        <v>1.011154044981601</v>
+        <v>1.027692349403139</v>
       </c>
       <c r="M4">
-        <v>0.9853733941794847</v>
+        <v>1.026798027858688</v>
       </c>
       <c r="N4">
-        <v>1.015329879244643</v>
+        <v>1.030820317722964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9958100708661969</v>
+        <v>1.025077535726505</v>
       </c>
       <c r="D5">
-        <v>1.003079954240591</v>
+        <v>1.027554891827847</v>
       </c>
       <c r="E5">
-        <v>1.002259951869601</v>
+        <v>1.025440186497765</v>
       </c>
       <c r="F5">
-        <v>0.9771580643825406</v>
+        <v>1.024762433750256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044289367549276</v>
+        <v>1.029822414703959</v>
       </c>
       <c r="J5">
-        <v>1.014863278760572</v>
+        <v>1.029563860695986</v>
       </c>
       <c r="K5">
-        <v>1.012917677579694</v>
+        <v>1.030008154728576</v>
       </c>
       <c r="L5">
-        <v>1.012107259999541</v>
+        <v>1.027898785306581</v>
       </c>
       <c r="M5">
-        <v>0.987308473660456</v>
+        <v>1.027222747713357</v>
       </c>
       <c r="N5">
-        <v>1.016304501022857</v>
+        <v>1.0310259594708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9960555148055743</v>
+        <v>1.025128618760434</v>
       </c>
       <c r="D6">
-        <v>1.003296668601443</v>
+        <v>1.027602019165346</v>
       </c>
       <c r="E6">
-        <v>1.002459022261252</v>
+        <v>1.025483745760531</v>
       </c>
       <c r="F6">
-        <v>0.9775245093049207</v>
+        <v>1.024842735465101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04435386873806</v>
+        <v>1.029830766136445</v>
       </c>
       <c r="J6">
-        <v>1.015025726456116</v>
+        <v>1.029598317575852</v>
       </c>
       <c r="K6">
-        <v>1.013094322486991</v>
+        <v>1.030046379690139</v>
       </c>
       <c r="L6">
-        <v>1.012266419984267</v>
+        <v>1.027933430619906</v>
       </c>
       <c r="M6">
-        <v>0.9876314714240624</v>
+        <v>1.027294036193906</v>
       </c>
       <c r="N6">
-        <v>1.016467179412762</v>
+        <v>1.031060465283387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9943601707768591</v>
+        <v>1.024777274104927</v>
       </c>
       <c r="D7">
-        <v>1.001800099289056</v>
+        <v>1.027277899258343</v>
       </c>
       <c r="E7">
-        <v>1.001084485113552</v>
+        <v>1.025184179975881</v>
       </c>
       <c r="F7">
-        <v>0.9749925699889591</v>
+        <v>1.024290462310848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043906724946918</v>
+        <v>1.029773130305399</v>
       </c>
       <c r="J7">
-        <v>1.013903108589319</v>
+        <v>1.029361255963539</v>
       </c>
       <c r="K7">
-        <v>1.011873852962779</v>
+        <v>1.029783425654436</v>
       </c>
       <c r="L7">
-        <v>1.011166841882784</v>
+        <v>1.027695108895282</v>
       </c>
       <c r="M7">
-        <v>0.985399380003798</v>
+        <v>1.026803704590485</v>
       </c>
       <c r="N7">
-        <v>1.015342967299828</v>
+        <v>1.030823067016394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9870762687995414</v>
+        <v>1.023306498244405</v>
       </c>
       <c r="D8">
-        <v>0.995378931283739</v>
+        <v>1.025921537060386</v>
       </c>
       <c r="E8">
-        <v>0.9951917899101127</v>
+        <v>1.023930935301953</v>
       </c>
       <c r="F8">
-        <v>0.9640903154528599</v>
+        <v>1.021979407334314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041945128518359</v>
+        <v>1.029526993140487</v>
       </c>
       <c r="J8">
-        <v>1.009066120578415</v>
+        <v>1.028367136137509</v>
       </c>
       <c r="K8">
-        <v>1.006621863880282</v>
+        <v>1.028681518256834</v>
       </c>
       <c r="L8">
-        <v>1.006437287794409</v>
+        <v>1.026696610314828</v>
       </c>
       <c r="M8">
-        <v>0.9757797256668174</v>
+        <v>1.02475068779104</v>
       </c>
       <c r="N8">
-        <v>1.010499110211138</v>
+        <v>1.029827535426183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.973414166913155</v>
+        <v>1.020706281754133</v>
       </c>
       <c r="D9">
-        <v>0.9833719949572638</v>
+        <v>1.023525312079593</v>
       </c>
       <c r="E9">
-        <v>0.9841933578048324</v>
+        <v>1.021718273330448</v>
       </c>
       <c r="F9">
-        <v>0.9435095694831899</v>
+        <v>1.017896414808226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038113876800651</v>
+        <v>1.029073537489994</v>
       </c>
       <c r="J9">
-        <v>0.9999419792865297</v>
+        <v>1.026603032303448</v>
       </c>
       <c r="K9">
-        <v>0.99674073675193</v>
+        <v>1.026729128211225</v>
       </c>
       <c r="L9">
-        <v>0.997548200609646</v>
+        <v>1.024928154783473</v>
       </c>
       <c r="M9">
-        <v>0.9575908643542356</v>
+        <v>1.021119202265194</v>
       </c>
       <c r="N9">
-        <v>1.001362011592065</v>
+        <v>1.028060926362333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9636618141438974</v>
+        <v>1.018966900126279</v>
       </c>
       <c r="D10">
-        <v>0.9748296754387862</v>
+        <v>1.02192356973283</v>
       </c>
       <c r="E10">
-        <v>0.9763839225453086</v>
+        <v>1.02024018068139</v>
       </c>
       <c r="F10">
-        <v>0.9286843754660874</v>
+        <v>1.015166663303237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035280122574395</v>
+        <v>1.02875794551203</v>
       </c>
       <c r="J10">
-        <v>0.9933952225895887</v>
+        <v>1.025418550448312</v>
       </c>
       <c r="K10">
-        <v>0.9896687617984011</v>
+        <v>1.025420227326463</v>
       </c>
       <c r="L10">
-        <v>0.9911930782910792</v>
+        <v>1.023743048672178</v>
       </c>
       <c r="M10">
-        <v>0.9444728085567362</v>
+        <v>1.018688386508969</v>
       </c>
       <c r="N10">
-        <v>0.9948059577496904</v>
+        <v>1.0268747624071</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9592632882824483</v>
+        <v>1.018212288293181</v>
       </c>
       <c r="D11">
-        <v>0.9709844966052503</v>
+        <v>1.021228957279986</v>
       </c>
       <c r="E11">
-        <v>0.9728726936438024</v>
+        <v>1.019599418020629</v>
       </c>
       <c r="F11">
-        <v>0.9219540049593689</v>
+        <v>1.013982672961656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033979582133178</v>
+        <v>1.028618132993925</v>
       </c>
       <c r="J11">
-        <v>0.9904347592813808</v>
+        <v>1.024903634119623</v>
       </c>
       <c r="K11">
-        <v>0.9864751624686007</v>
+        <v>1.024851697414014</v>
       </c>
       <c r="L11">
-        <v>0.9883249881345011</v>
+        <v>1.023228405458526</v>
       </c>
       <c r="M11">
-        <v>0.9385148083288783</v>
+        <v>1.017633364626644</v>
       </c>
       <c r="N11">
-        <v>0.9918412902440152</v>
+        <v>1.026359114838163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9576008558731419</v>
+        <v>1.017931770716326</v>
       </c>
       <c r="D12">
-        <v>0.9695324187514446</v>
+        <v>1.020970787191722</v>
       </c>
       <c r="E12">
-        <v>0.9715473748075423</v>
+        <v>1.019361297027874</v>
       </c>
       <c r="F12">
-        <v>0.9194024408169239</v>
+        <v>1.013542575291912</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033484758041744</v>
+        <v>1.028565725158173</v>
       </c>
       <c r="J12">
-        <v>0.9893147040322798</v>
+        <v>1.024712064133843</v>
       </c>
       <c r="K12">
-        <v>0.9852675715903436</v>
+        <v>1.024640252040123</v>
       </c>
       <c r="L12">
-        <v>0.9872407661482777</v>
+        <v>1.023037018863003</v>
       </c>
       <c r="M12">
-        <v>0.9362557750096092</v>
+        <v>1.017241101995887</v>
       </c>
       <c r="N12">
-        <v>0.9907196443879884</v>
+        <v>1.026167272801029</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9579587873439913</v>
+        <v>1.017991952753905</v>
       </c>
       <c r="D13">
-        <v>0.9698450035163897</v>
+        <v>1.021026172840917</v>
       </c>
       <c r="E13">
-        <v>0.9718326426199885</v>
+        <v>1.019412379948096</v>
       </c>
       <c r="F13">
-        <v>0.9199521814049252</v>
+        <v>1.013636992000053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033591443219108</v>
+        <v>1.028576988332716</v>
       </c>
       <c r="J13">
-        <v>0.9895559097656824</v>
+        <v>1.024753170484616</v>
       </c>
       <c r="K13">
-        <v>0.9855275978690033</v>
+        <v>1.024685619961772</v>
       </c>
       <c r="L13">
-        <v>0.9874742147201295</v>
+        <v>1.023078082162989</v>
       </c>
       <c r="M13">
-        <v>0.9367424999672628</v>
+        <v>1.017325261051804</v>
       </c>
       <c r="N13">
-        <v>0.990961192661199</v>
+        <v>1.026208437527536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9591264688816653</v>
+        <v>1.018189105154877</v>
       </c>
       <c r="D14">
-        <v>0.9708649644252629</v>
+        <v>1.021207620141778</v>
       </c>
       <c r="E14">
-        <v>0.9727635826411301</v>
+        <v>1.019579737187488</v>
       </c>
       <c r="F14">
-        <v>0.9217441753661809</v>
+        <v>1.013946300763705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033938923791536</v>
+        <v>1.028613810644325</v>
       </c>
       <c r="J14">
-        <v>0.9903426009760063</v>
+        <v>1.024887805164709</v>
       </c>
       <c r="K14">
-        <v>0.9863757880818965</v>
+        <v>1.024834224756481</v>
       </c>
       <c r="L14">
-        <v>0.9882357600808207</v>
+        <v>1.023212589989344</v>
       </c>
       <c r="M14">
-        <v>0.9383290402559268</v>
+        <v>1.017600947899239</v>
       </c>
       <c r="N14">
-        <v>0.9917490010632763</v>
+        <v>1.026343263404317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9598420517648231</v>
+        <v>1.018310547844571</v>
       </c>
       <c r="D15">
-        <v>0.9714901828415444</v>
+        <v>1.021319394515842</v>
       </c>
       <c r="E15">
-        <v>0.9733343192014531</v>
+        <v>1.01968283643779</v>
       </c>
       <c r="F15">
-        <v>0.9228412857285322</v>
+        <v>1.014136834538925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034151439184337</v>
+        <v>1.028636435092751</v>
       </c>
       <c r="J15">
-        <v>0.9908245543265779</v>
+        <v>1.024970717261792</v>
       </c>
       <c r="K15">
-        <v>0.9868955060838992</v>
+        <v>1.024925749478863</v>
       </c>
       <c r="L15">
-        <v>0.988702425456048</v>
+        <v>1.023295434794953</v>
       </c>
       <c r="M15">
-        <v>0.9393003322625509</v>
+        <v>1.017770756923871</v>
       </c>
       <c r="N15">
-        <v>0.9922316388428865</v>
+        <v>1.026426293246088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9639498440571208</v>
+        <v>1.019016950413652</v>
       </c>
       <c r="D16">
-        <v>0.9750816339532393</v>
+        <v>1.021969646573149</v>
       </c>
       <c r="E16">
-        <v>0.9766140859473359</v>
+        <v>1.020282690235083</v>
       </c>
       <c r="F16">
-        <v>0.9291240948999626</v>
+        <v>1.015245197897495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035364828477176</v>
+        <v>1.028767157797095</v>
       </c>
       <c r="J16">
-        <v>0.9935889249506881</v>
+        <v>1.025452680814298</v>
       </c>
       <c r="K16">
-        <v>0.9898778096129147</v>
+        <v>1.025457921334815</v>
       </c>
       <c r="L16">
-        <v>0.991380857154698</v>
+        <v>1.023777172387241</v>
       </c>
       <c r="M16">
-        <v>0.9448620207769511</v>
+        <v>1.018758352053859</v>
       </c>
       <c r="N16">
-        <v>0.9949999351903606</v>
+        <v>1.02690894124212</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9664780250372258</v>
+        <v>1.019459667866326</v>
       </c>
       <c r="D17">
-        <v>0.9772940656228253</v>
+        <v>1.022377250163266</v>
       </c>
       <c r="E17">
-        <v>0.9786355991694023</v>
+        <v>1.020658763325177</v>
       </c>
       <c r="F17">
-        <v>0.9329786431232114</v>
+        <v>1.015939903766933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036105806389651</v>
+        <v>1.028848310480972</v>
       </c>
       <c r="J17">
-        <v>0.9952882751411125</v>
+        <v>1.02575445916613</v>
       </c>
       <c r="K17">
-        <v>0.9917122798643417</v>
+        <v>1.025791263763576</v>
       </c>
       <c r="L17">
-        <v>0.9930288885074771</v>
+        <v>1.024078954700579</v>
       </c>
       <c r="M17">
-        <v>0.9482735409349302</v>
+        <v>1.019377177655505</v>
       </c>
       <c r="N17">
-        <v>0.9967016986529736</v>
+        <v>1.027211148153827</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9679358824296203</v>
+        <v>1.019717757989802</v>
       </c>
       <c r="D18">
-        <v>0.9785705584609641</v>
+        <v>1.022614897565367</v>
       </c>
       <c r="E18">
-        <v>0.9798023184939467</v>
+        <v>1.020878049266079</v>
       </c>
       <c r="F18">
-        <v>0.9351972968085478</v>
+        <v>1.016344922762637</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03653096569705</v>
+        <v>1.02889534070405</v>
       </c>
       <c r="J18">
-        <v>0.9962674641098601</v>
+        <v>1.025930285882797</v>
       </c>
       <c r="K18">
-        <v>0.9927697367092013</v>
+        <v>1.025985526429366</v>
       </c>
       <c r="L18">
-        <v>0.9939790422550797</v>
+        <v>1.024254836139814</v>
       </c>
       <c r="M18">
-        <v>0.9502369348949656</v>
+        <v>1.019737891269928</v>
       </c>
       <c r="N18">
-        <v>0.9976822781823717</v>
+        <v>1.027387224564599</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9684301899818997</v>
+        <v>1.019805736501898</v>
       </c>
       <c r="D19">
-        <v>0.9790034900523782</v>
+        <v>1.022695912159333</v>
       </c>
       <c r="E19">
-        <v>0.9801980829219454</v>
+        <v>1.020952808106289</v>
       </c>
       <c r="F19">
-        <v>0.9359489104147016</v>
+        <v>1.016482991705884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036674759781345</v>
+        <v>1.028911325119623</v>
       </c>
       <c r="J19">
-        <v>0.9965993479239907</v>
+        <v>1.025990205164697</v>
       </c>
       <c r="K19">
-        <v>0.9931282176380356</v>
+        <v>1.026051736162936</v>
       </c>
       <c r="L19">
-        <v>0.9943011750480847</v>
+        <v>1.024314782961638</v>
       </c>
       <c r="M19">
-        <v>0.9509020277122513</v>
+        <v>1.019860845427718</v>
       </c>
       <c r="N19">
-        <v>0.9980146333095857</v>
+        <v>1.027447228938752</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9662085268320606</v>
+        <v>1.019412182927333</v>
       </c>
       <c r="D20">
-        <v>0.9770581512807043</v>
+        <v>1.02233352861045</v>
       </c>
       <c r="E20">
-        <v>0.9784200030207681</v>
+        <v>1.020618421616013</v>
       </c>
       <c r="F20">
-        <v>0.9325681853956657</v>
+        <v>1.015865388265888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036027039513527</v>
+        <v>1.028839635094122</v>
       </c>
       <c r="J20">
-        <v>0.9951072039654701</v>
+        <v>1.025722101444238</v>
       </c>
       <c r="K20">
-        <v>0.9915167685468903</v>
+        <v>1.025755516913462</v>
       </c>
       <c r="L20">
-        <v>0.9928532297041768</v>
+        <v>1.024046591130219</v>
       </c>
       <c r="M20">
-        <v>0.9479102855840438</v>
+        <v>1.019310808106002</v>
       </c>
       <c r="N20">
-        <v>0.9965203703354927</v>
+        <v>1.027178744480258</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9587834252047835</v>
+        <v>1.01813105482027</v>
       </c>
       <c r="D21">
-        <v>0.9705652843610341</v>
+        <v>1.021154192875657</v>
       </c>
       <c r="E21">
-        <v>0.9724900401472694</v>
+        <v>1.019530457794886</v>
       </c>
       <c r="F21">
-        <v>0.921217945138303</v>
+        <v>1.013855225722268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033836929729337</v>
+        <v>1.02860298051541</v>
       </c>
       <c r="J21">
-        <v>0.9901115165832564</v>
+        <v>1.024848167105535</v>
       </c>
       <c r="K21">
-        <v>0.9861266203624379</v>
+        <v>1.024790471768484</v>
       </c>
       <c r="L21">
-        <v>0.9880120375417432</v>
+        <v>1.023172987020975</v>
       </c>
       <c r="M21">
-        <v>0.9378631496000958</v>
+        <v>1.017519775583605</v>
       </c>
       <c r="N21">
-        <v>0.9915175885041829</v>
+        <v>1.026303569054553</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9539480461747496</v>
+        <v>1.017324277464403</v>
       </c>
       <c r="D22">
-        <v>0.9663441427204508</v>
+        <v>1.020411770048415</v>
       </c>
       <c r="E22">
-        <v>0.968638658409784</v>
+        <v>1.01884575563589</v>
       </c>
       <c r="F22">
-        <v>0.9137800642628749</v>
+        <v>1.012589551742275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032391551074235</v>
+        <v>1.02845143646571</v>
       </c>
       <c r="J22">
-        <v>0.986851556376701</v>
+        <v>1.024296911665265</v>
       </c>
       <c r="K22">
-        <v>0.9826131704592371</v>
+        <v>1.024182157436093</v>
       </c>
       <c r="L22">
-        <v>0.9848580856353545</v>
+        <v>1.022622413458014</v>
       </c>
       <c r="M22">
-        <v>0.9312776062146382</v>
+        <v>1.016391475438751</v>
       </c>
       <c r="N22">
-        <v>0.9882529987802117</v>
+        <v>1.025751530768328</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9565280127162514</v>
+        <v>1.017752088060076</v>
       </c>
       <c r="D23">
-        <v>0.9685956794161964</v>
+        <v>1.020805431286449</v>
       </c>
       <c r="E23">
-        <v>0.9706925957149337</v>
+        <v>1.019208792146373</v>
       </c>
       <c r="F23">
-        <v>0.9177534317457485</v>
+        <v>1.01326068458421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033164512251374</v>
+        <v>1.028532033707435</v>
       </c>
       <c r="J23">
-        <v>0.9885915618592216</v>
+        <v>1.024589311993808</v>
       </c>
       <c r="K23">
-        <v>0.9844881039212493</v>
+        <v>1.024504784359275</v>
       </c>
       <c r="L23">
-        <v>0.9865410121654441</v>
+        <v>1.022914407256121</v>
       </c>
       <c r="M23">
-        <v>0.9347957564268832</v>
+        <v>1.016989821428225</v>
       </c>
       <c r="N23">
-        <v>0.9899954752700986</v>
+        <v>1.026044346338876</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.966330353185162</v>
+        <v>1.019433639758103</v>
       </c>
       <c r="D24">
-        <v>0.9771647938880621</v>
+        <v>1.022353284809805</v>
       </c>
       <c r="E24">
-        <v>0.9785174598262428</v>
+        <v>1.020636650517636</v>
       </c>
       <c r="F24">
-        <v>0.9327537448072651</v>
+        <v>1.01589905920296</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036062652579842</v>
+        <v>1.028843556069691</v>
       </c>
       <c r="J24">
-        <v>0.9951890592473651</v>
+        <v>1.025736723109866</v>
       </c>
       <c r="K24">
-        <v>0.991605150386771</v>
+        <v>1.025771669902527</v>
       </c>
       <c r="L24">
-        <v>0.9929326366005412</v>
+        <v>1.024061215276607</v>
       </c>
       <c r="M24">
-        <v>0.9480745065840737</v>
+        <v>1.01934079837957</v>
       </c>
       <c r="N24">
-        <v>0.9966023418612768</v>
+        <v>1.027193386910329</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9770526686970927</v>
+        <v>1.02137952772671</v>
       </c>
       <c r="D25">
-        <v>0.9865650759404426</v>
+        <v>1.024145534709155</v>
       </c>
       <c r="E25">
-        <v>0.9871157323676926</v>
+        <v>1.022290817826016</v>
       </c>
       <c r="F25">
-        <v>0.9490100487234997</v>
+        <v>1.018953287827462</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039151416237174</v>
+        <v>1.029193107050463</v>
       </c>
       <c r="J25">
-        <v>1.002377773598299</v>
+        <v>1.027060569482102</v>
       </c>
       <c r="K25">
-        <v>0.9993755947030932</v>
+        <v>1.027235146826479</v>
       </c>
       <c r="L25">
-        <v>0.9999174079897198</v>
+        <v>1.025386416773207</v>
       </c>
       <c r="M25">
-        <v>0.9624550944572589</v>
+        <v>1.022059720114045</v>
       </c>
       <c r="N25">
-        <v>1.003801265011146</v>
+        <v>1.028519113296261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022927288344651</v>
+        <v>0.985147911931704</v>
       </c>
       <c r="D2">
-        <v>1.025571941809823</v>
+        <v>0.9936813056681291</v>
       </c>
       <c r="E2">
-        <v>1.023608011796151</v>
+        <v>0.99363517403935</v>
       </c>
       <c r="F2">
-        <v>1.021383749159382</v>
+        <v>0.9611967004875356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029462288934039</v>
+        <v>1.041415624077375</v>
       </c>
       <c r="J2">
-        <v>1.028110375872427</v>
+        <v>1.007782106284081</v>
       </c>
       <c r="K2">
-        <v>1.028397121142402</v>
+        <v>1.005229377553505</v>
       </c>
       <c r="L2">
-        <v>1.026438950580855</v>
+        <v>1.005183899024078</v>
       </c>
       <c r="M2">
-        <v>1.024221239959002</v>
+        <v>0.9732244708863046</v>
       </c>
       <c r="N2">
-        <v>1.029570410532077</v>
+        <v>1.009213272469228</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024048684826391</v>
+        <v>0.9907901262114304</v>
       </c>
       <c r="D3">
-        <v>1.026605898340174</v>
+        <v>0.9986511524774392</v>
       </c>
       <c r="E3">
-        <v>1.024563195048109</v>
+        <v>0.9981937242184307</v>
       </c>
       <c r="F3">
-        <v>1.023145456043784</v>
+        <v>0.9696542270418698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029652169397116</v>
+        <v>1.042953195633568</v>
       </c>
       <c r="J3">
-        <v>1.028869139835098</v>
+        <v>1.011535049777794</v>
       </c>
       <c r="K3">
-        <v>1.029237793935099</v>
+        <v>1.009301321202419</v>
       </c>
       <c r="L3">
-        <v>1.027200644748846</v>
+        <v>1.008849768971541</v>
       </c>
       <c r="M3">
-        <v>1.025786774690352</v>
+        <v>0.9806906989580639</v>
       </c>
       <c r="N3">
-        <v>1.030330252026604</v>
+        <v>1.01297154557317</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024773206626803</v>
+        <v>0.9943404449270646</v>
       </c>
       <c r="D4">
-        <v>1.027274147201752</v>
+        <v>1.001782690804673</v>
       </c>
       <c r="E4">
-        <v>1.025180712360282</v>
+        <v>1.001068498713759</v>
       </c>
       <c r="F4">
-        <v>1.024284069180329</v>
+        <v>0.9749630987258199</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029772460393206</v>
+        <v>1.043901500261886</v>
       </c>
       <c r="J4">
-        <v>1.029358510568884</v>
+        <v>1.013890039094315</v>
       </c>
       <c r="K4">
-        <v>1.029780380835498</v>
+        <v>1.011859647831523</v>
       </c>
       <c r="L4">
-        <v>1.027692349403139</v>
+        <v>1.0111540449816</v>
       </c>
       <c r="M4">
-        <v>1.026798027858688</v>
+        <v>0.9853733941794838</v>
       </c>
       <c r="N4">
-        <v>1.030820317722964</v>
+        <v>1.015329879244642</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025077535726505</v>
+        <v>0.9958100708661962</v>
       </c>
       <c r="D5">
-        <v>1.027554891827847</v>
+        <v>1.00307995424059</v>
       </c>
       <c r="E5">
-        <v>1.025440186497765</v>
+        <v>1.0022599518696</v>
       </c>
       <c r="F5">
-        <v>1.024762433750256</v>
+        <v>0.9771580643825398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029822414703959</v>
+        <v>1.044289367549275</v>
       </c>
       <c r="J5">
-        <v>1.029563860695986</v>
+        <v>1.014863278760571</v>
       </c>
       <c r="K5">
-        <v>1.030008154728576</v>
+        <v>1.012917677579693</v>
       </c>
       <c r="L5">
-        <v>1.027898785306581</v>
+        <v>1.01210725999954</v>
       </c>
       <c r="M5">
-        <v>1.027222747713357</v>
+        <v>0.9873084736604553</v>
       </c>
       <c r="N5">
-        <v>1.0310259594708</v>
+        <v>1.016304501022856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025128618760434</v>
+        <v>0.9960555148055725</v>
       </c>
       <c r="D6">
-        <v>1.027602019165346</v>
+        <v>1.003296668601442</v>
       </c>
       <c r="E6">
-        <v>1.025483745760531</v>
+        <v>1.00245902226125</v>
       </c>
       <c r="F6">
-        <v>1.024842735465101</v>
+        <v>0.9775245093049195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029830766136445</v>
+        <v>1.044353868738059</v>
       </c>
       <c r="J6">
-        <v>1.029598317575852</v>
+        <v>1.015025726456114</v>
       </c>
       <c r="K6">
-        <v>1.030046379690139</v>
+        <v>1.013094322486989</v>
       </c>
       <c r="L6">
-        <v>1.027933430619906</v>
+        <v>1.012266419984265</v>
       </c>
       <c r="M6">
-        <v>1.027294036193906</v>
+        <v>0.9876314714240609</v>
       </c>
       <c r="N6">
-        <v>1.031060465283387</v>
+        <v>1.01646717941276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024777274104927</v>
+        <v>0.9943601707768596</v>
       </c>
       <c r="D7">
-        <v>1.027277899258343</v>
+        <v>1.001800099289057</v>
       </c>
       <c r="E7">
-        <v>1.025184179975881</v>
+        <v>1.001084485113553</v>
       </c>
       <c r="F7">
-        <v>1.024290462310848</v>
+        <v>0.9749925699889593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029773130305399</v>
+        <v>1.043906724946918</v>
       </c>
       <c r="J7">
-        <v>1.029361255963539</v>
+        <v>1.01390310858932</v>
       </c>
       <c r="K7">
-        <v>1.029783425654436</v>
+        <v>1.01187385296278</v>
       </c>
       <c r="L7">
-        <v>1.027695108895282</v>
+        <v>1.011166841882784</v>
       </c>
       <c r="M7">
-        <v>1.026803704590485</v>
+        <v>0.985399380003798</v>
       </c>
       <c r="N7">
-        <v>1.030823067016394</v>
+        <v>1.015342967299829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023306498244405</v>
+        <v>0.9870762687995414</v>
       </c>
       <c r="D8">
-        <v>1.025921537060386</v>
+        <v>0.9953789312837391</v>
       </c>
       <c r="E8">
-        <v>1.023930935301953</v>
+        <v>0.9951917899101125</v>
       </c>
       <c r="F8">
-        <v>1.021979407334314</v>
+        <v>0.9640903154528597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029526993140487</v>
+        <v>1.041945128518359</v>
       </c>
       <c r="J8">
-        <v>1.028367136137509</v>
+        <v>1.009066120578415</v>
       </c>
       <c r="K8">
-        <v>1.028681518256834</v>
+        <v>1.006621863880282</v>
       </c>
       <c r="L8">
-        <v>1.026696610314828</v>
+        <v>1.006437287794409</v>
       </c>
       <c r="M8">
-        <v>1.02475068779104</v>
+        <v>0.9757797256668174</v>
       </c>
       <c r="N8">
-        <v>1.029827535426183</v>
+        <v>1.010499110211138</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020706281754133</v>
+        <v>0.973414166913154</v>
       </c>
       <c r="D9">
-        <v>1.023525312079593</v>
+        <v>0.983371994957263</v>
       </c>
       <c r="E9">
-        <v>1.021718273330448</v>
+        <v>0.9841933578048317</v>
       </c>
       <c r="F9">
-        <v>1.017896414808226</v>
+        <v>0.9435095694831888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029073537489994</v>
+        <v>1.038113876800651</v>
       </c>
       <c r="J9">
-        <v>1.026603032303448</v>
+        <v>0.9999419792865289</v>
       </c>
       <c r="K9">
-        <v>1.026729128211225</v>
+        <v>0.9967407367519291</v>
       </c>
       <c r="L9">
-        <v>1.024928154783473</v>
+        <v>0.9975482006096452</v>
       </c>
       <c r="M9">
-        <v>1.021119202265194</v>
+        <v>0.9575908643542347</v>
       </c>
       <c r="N9">
-        <v>1.028060926362333</v>
+        <v>1.001362011592064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018966900126279</v>
+        <v>0.9636618141438967</v>
       </c>
       <c r="D10">
-        <v>1.02192356973283</v>
+        <v>0.9748296754387857</v>
       </c>
       <c r="E10">
-        <v>1.02024018068139</v>
+        <v>0.976383922545308</v>
       </c>
       <c r="F10">
-        <v>1.015166663303237</v>
+        <v>0.9286843754660864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02875794551203</v>
+        <v>1.035280122574395</v>
       </c>
       <c r="J10">
-        <v>1.025418550448312</v>
+        <v>0.993395222589588</v>
       </c>
       <c r="K10">
-        <v>1.025420227326463</v>
+        <v>0.9896687617984006</v>
       </c>
       <c r="L10">
-        <v>1.023743048672178</v>
+        <v>0.9911930782910785</v>
       </c>
       <c r="M10">
-        <v>1.018688386508969</v>
+        <v>0.9444728085567353</v>
       </c>
       <c r="N10">
-        <v>1.0268747624071</v>
+        <v>0.9948059577496899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018212288293181</v>
+        <v>0.9592632882824476</v>
       </c>
       <c r="D11">
-        <v>1.021228957279986</v>
+        <v>0.9709844966052494</v>
       </c>
       <c r="E11">
-        <v>1.019599418020629</v>
+        <v>0.9728726936438017</v>
       </c>
       <c r="F11">
-        <v>1.013982672961656</v>
+        <v>0.921954004959368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028618132993925</v>
+        <v>1.033979582133178</v>
       </c>
       <c r="J11">
-        <v>1.024903634119623</v>
+        <v>0.9904347592813801</v>
       </c>
       <c r="K11">
-        <v>1.024851697414014</v>
+        <v>0.9864751624685999</v>
       </c>
       <c r="L11">
-        <v>1.023228405458526</v>
+        <v>0.9883249881345004</v>
       </c>
       <c r="M11">
-        <v>1.017633364626644</v>
+        <v>0.9385148083288777</v>
       </c>
       <c r="N11">
-        <v>1.026359114838163</v>
+        <v>0.9918412902440146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017931770716326</v>
+        <v>0.9576008558731417</v>
       </c>
       <c r="D12">
-        <v>1.020970787191722</v>
+        <v>0.9695324187514446</v>
       </c>
       <c r="E12">
-        <v>1.019361297027874</v>
+        <v>0.9715473748075421</v>
       </c>
       <c r="F12">
-        <v>1.013542575291912</v>
+        <v>0.9194024408169235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028565725158173</v>
+        <v>1.033484758041744</v>
       </c>
       <c r="J12">
-        <v>1.024712064133843</v>
+        <v>0.9893147040322797</v>
       </c>
       <c r="K12">
-        <v>1.024640252040123</v>
+        <v>0.9852675715903436</v>
       </c>
       <c r="L12">
-        <v>1.023037018863003</v>
+        <v>0.9872407661482776</v>
       </c>
       <c r="M12">
-        <v>1.017241101995887</v>
+        <v>0.9362557750096087</v>
       </c>
       <c r="N12">
-        <v>1.026167272801029</v>
+        <v>0.9907196443879884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017991952753905</v>
+        <v>0.957958787343991</v>
       </c>
       <c r="D13">
-        <v>1.021026172840917</v>
+        <v>0.9698450035163891</v>
       </c>
       <c r="E13">
-        <v>1.019412379948096</v>
+        <v>0.9718326426199879</v>
       </c>
       <c r="F13">
-        <v>1.013636992000053</v>
+        <v>0.919952181404925</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028576988332716</v>
+        <v>1.033591443219108</v>
       </c>
       <c r="J13">
-        <v>1.024753170484616</v>
+        <v>0.9895559097656818</v>
       </c>
       <c r="K13">
-        <v>1.024685619961772</v>
+        <v>0.9855275978690028</v>
       </c>
       <c r="L13">
-        <v>1.023078082162989</v>
+        <v>0.9874742147201292</v>
       </c>
       <c r="M13">
-        <v>1.017325261051804</v>
+        <v>0.9367424999672627</v>
       </c>
       <c r="N13">
-        <v>1.026208437527536</v>
+        <v>0.9909611926611985</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018189105154877</v>
+        <v>0.9591264688816646</v>
       </c>
       <c r="D14">
-        <v>1.021207620141778</v>
+        <v>0.9708649644252623</v>
       </c>
       <c r="E14">
-        <v>1.019579737187488</v>
+        <v>0.9727635826411296</v>
       </c>
       <c r="F14">
-        <v>1.013946300763705</v>
+        <v>0.9217441753661803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028613810644325</v>
+        <v>1.033938923791536</v>
       </c>
       <c r="J14">
-        <v>1.024887805164709</v>
+        <v>0.9903426009760057</v>
       </c>
       <c r="K14">
-        <v>1.024834224756481</v>
+        <v>0.986375788081896</v>
       </c>
       <c r="L14">
-        <v>1.023212589989344</v>
+        <v>0.9882357600808201</v>
       </c>
       <c r="M14">
-        <v>1.017600947899239</v>
+        <v>0.9383290402559261</v>
       </c>
       <c r="N14">
-        <v>1.026343263404317</v>
+        <v>0.9917490010632756</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018310547844571</v>
+        <v>0.9598420517648215</v>
       </c>
       <c r="D15">
-        <v>1.021319394515842</v>
+        <v>0.971490182841543</v>
       </c>
       <c r="E15">
-        <v>1.01968283643779</v>
+        <v>0.9733343192014517</v>
       </c>
       <c r="F15">
-        <v>1.014136834538925</v>
+        <v>0.9228412857285304</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028636435092751</v>
+        <v>1.034151439184336</v>
       </c>
       <c r="J15">
-        <v>1.024970717261792</v>
+        <v>0.9908245543265766</v>
       </c>
       <c r="K15">
-        <v>1.024925749478863</v>
+        <v>0.9868955060838978</v>
       </c>
       <c r="L15">
-        <v>1.023295434794953</v>
+        <v>0.9887024254560467</v>
       </c>
       <c r="M15">
-        <v>1.017770756923871</v>
+        <v>0.9393003322625493</v>
       </c>
       <c r="N15">
-        <v>1.026426293246088</v>
+        <v>0.9922316388428852</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019016950413652</v>
+        <v>0.9639498440571214</v>
       </c>
       <c r="D16">
-        <v>1.021969646573149</v>
+        <v>0.9750816339532398</v>
       </c>
       <c r="E16">
-        <v>1.020282690235083</v>
+        <v>0.9766140859473361</v>
       </c>
       <c r="F16">
-        <v>1.015245197897495</v>
+        <v>0.9291240948999633</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028767157797095</v>
+        <v>1.035364828477176</v>
       </c>
       <c r="J16">
-        <v>1.025452680814298</v>
+        <v>0.9935889249506885</v>
       </c>
       <c r="K16">
-        <v>1.025457921334815</v>
+        <v>0.989877809612915</v>
       </c>
       <c r="L16">
-        <v>1.023777172387241</v>
+        <v>0.9913808571546981</v>
       </c>
       <c r="M16">
-        <v>1.018758352053859</v>
+        <v>0.9448620207769519</v>
       </c>
       <c r="N16">
-        <v>1.02690894124212</v>
+        <v>0.9949999351903611</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019459667866326</v>
+        <v>0.9664780250372261</v>
       </c>
       <c r="D17">
-        <v>1.022377250163266</v>
+        <v>0.9772940656228257</v>
       </c>
       <c r="E17">
-        <v>1.020658763325177</v>
+        <v>0.9786355991694027</v>
       </c>
       <c r="F17">
-        <v>1.015939903766933</v>
+        <v>0.9329786431232115</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028848310480972</v>
+        <v>1.036105806389652</v>
       </c>
       <c r="J17">
-        <v>1.02575445916613</v>
+        <v>0.9952882751411128</v>
       </c>
       <c r="K17">
-        <v>1.025791263763576</v>
+        <v>0.9917122798643423</v>
       </c>
       <c r="L17">
-        <v>1.024078954700579</v>
+        <v>0.9930288885074774</v>
       </c>
       <c r="M17">
-        <v>1.019377177655505</v>
+        <v>0.9482735409349305</v>
       </c>
       <c r="N17">
-        <v>1.027211148153827</v>
+        <v>0.9967016986529741</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019717757989802</v>
+        <v>0.9679358824296203</v>
       </c>
       <c r="D18">
-        <v>1.022614897565367</v>
+        <v>0.9785705584609643</v>
       </c>
       <c r="E18">
-        <v>1.020878049266079</v>
+        <v>0.9798023184939462</v>
       </c>
       <c r="F18">
-        <v>1.016344922762637</v>
+        <v>0.9351972968085479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02889534070405</v>
+        <v>1.03653096569705</v>
       </c>
       <c r="J18">
-        <v>1.025930285882797</v>
+        <v>0.9962674641098601</v>
       </c>
       <c r="K18">
-        <v>1.025985526429366</v>
+        <v>0.9927697367092014</v>
       </c>
       <c r="L18">
-        <v>1.024254836139814</v>
+        <v>0.9939790422550795</v>
       </c>
       <c r="M18">
-        <v>1.019737891269928</v>
+        <v>0.9502369348949656</v>
       </c>
       <c r="N18">
-        <v>1.027387224564599</v>
+        <v>0.9976822781823715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019805736501898</v>
+        <v>0.9684301899818996</v>
       </c>
       <c r="D19">
-        <v>1.022695912159333</v>
+        <v>0.9790034900523781</v>
       </c>
       <c r="E19">
-        <v>1.020952808106289</v>
+        <v>0.9801980829219453</v>
       </c>
       <c r="F19">
-        <v>1.016482991705884</v>
+        <v>0.9359489104147016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028911325119623</v>
+        <v>1.036674759781345</v>
       </c>
       <c r="J19">
-        <v>1.025990205164697</v>
+        <v>0.9965993479239907</v>
       </c>
       <c r="K19">
-        <v>1.026051736162936</v>
+        <v>0.9931282176380355</v>
       </c>
       <c r="L19">
-        <v>1.024314782961638</v>
+        <v>0.9943011750480846</v>
       </c>
       <c r="M19">
-        <v>1.019860845427718</v>
+        <v>0.9509020277122512</v>
       </c>
       <c r="N19">
-        <v>1.027447228938752</v>
+        <v>0.9980146333095857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019412182927333</v>
+        <v>0.9662085268320606</v>
       </c>
       <c r="D20">
-        <v>1.02233352861045</v>
+        <v>0.9770581512807045</v>
       </c>
       <c r="E20">
-        <v>1.020618421616013</v>
+        <v>0.978420003020768</v>
       </c>
       <c r="F20">
-        <v>1.015865388265888</v>
+        <v>0.932568185395666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028839635094122</v>
+        <v>1.036027039513527</v>
       </c>
       <c r="J20">
-        <v>1.025722101444238</v>
+        <v>0.9951072039654699</v>
       </c>
       <c r="K20">
-        <v>1.025755516913462</v>
+        <v>0.9915167685468904</v>
       </c>
       <c r="L20">
-        <v>1.024046591130219</v>
+        <v>0.9928532297041766</v>
       </c>
       <c r="M20">
-        <v>1.019310808106002</v>
+        <v>0.9479102855840439</v>
       </c>
       <c r="N20">
-        <v>1.027178744480258</v>
+        <v>0.9965203703354925</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01813105482027</v>
+        <v>0.9587834252047832</v>
       </c>
       <c r="D21">
-        <v>1.021154192875657</v>
+        <v>0.970565284361034</v>
       </c>
       <c r="E21">
-        <v>1.019530457794886</v>
+        <v>0.972490040147269</v>
       </c>
       <c r="F21">
-        <v>1.013855225722268</v>
+        <v>0.9212179451383028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02860298051541</v>
+        <v>1.033836929729337</v>
       </c>
       <c r="J21">
-        <v>1.024848167105535</v>
+        <v>0.990111516583256</v>
       </c>
       <c r="K21">
-        <v>1.024790471768484</v>
+        <v>0.9861266203624378</v>
       </c>
       <c r="L21">
-        <v>1.023172987020975</v>
+        <v>0.9880120375417429</v>
       </c>
       <c r="M21">
-        <v>1.017519775583605</v>
+        <v>0.9378631496000956</v>
       </c>
       <c r="N21">
-        <v>1.026303569054553</v>
+        <v>0.9915175885041826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017324277464403</v>
+        <v>0.9539480461747496</v>
       </c>
       <c r="D22">
-        <v>1.020411770048415</v>
+        <v>0.966344142720451</v>
       </c>
       <c r="E22">
-        <v>1.01884575563589</v>
+        <v>0.9686386584097844</v>
       </c>
       <c r="F22">
-        <v>1.012589551742275</v>
+        <v>0.9137800642628755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02845143646571</v>
+        <v>1.032391551074234</v>
       </c>
       <c r="J22">
-        <v>1.024296911665265</v>
+        <v>0.9868515563767011</v>
       </c>
       <c r="K22">
-        <v>1.024182157436093</v>
+        <v>0.9826131704592371</v>
       </c>
       <c r="L22">
-        <v>1.022622413458014</v>
+        <v>0.9848580856353548</v>
       </c>
       <c r="M22">
-        <v>1.016391475438751</v>
+        <v>0.9312776062146386</v>
       </c>
       <c r="N22">
-        <v>1.025751530768328</v>
+        <v>0.9882529987802119</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017752088060076</v>
+        <v>0.9565280127162509</v>
       </c>
       <c r="D23">
-        <v>1.020805431286449</v>
+        <v>0.9685956794161961</v>
       </c>
       <c r="E23">
-        <v>1.019208792146373</v>
+        <v>0.9706925957149335</v>
       </c>
       <c r="F23">
-        <v>1.01326068458421</v>
+        <v>0.9177534317457476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028532033707435</v>
+        <v>1.033164512251374</v>
       </c>
       <c r="J23">
-        <v>1.024589311993808</v>
+        <v>0.9885915618592213</v>
       </c>
       <c r="K23">
-        <v>1.024504784359275</v>
+        <v>0.9844881039212489</v>
       </c>
       <c r="L23">
-        <v>1.022914407256121</v>
+        <v>0.9865410121654441</v>
       </c>
       <c r="M23">
-        <v>1.016989821428225</v>
+        <v>0.9347957564268825</v>
       </c>
       <c r="N23">
-        <v>1.026044346338876</v>
+        <v>0.9899954752700985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019433639758103</v>
+        <v>0.9663303531851601</v>
       </c>
       <c r="D24">
-        <v>1.022353284809805</v>
+        <v>0.9771647938880602</v>
       </c>
       <c r="E24">
-        <v>1.020636650517636</v>
+        <v>0.9785174598262414</v>
       </c>
       <c r="F24">
-        <v>1.01589905920296</v>
+        <v>0.9327537448072633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028843556069691</v>
+        <v>1.036062652579841</v>
       </c>
       <c r="J24">
-        <v>1.025736723109866</v>
+        <v>0.9951890592473635</v>
       </c>
       <c r="K24">
-        <v>1.025771669902527</v>
+        <v>0.9916051503867693</v>
       </c>
       <c r="L24">
-        <v>1.024061215276607</v>
+        <v>0.9929326366005397</v>
       </c>
       <c r="M24">
-        <v>1.01934079837957</v>
+        <v>0.9480745065840718</v>
       </c>
       <c r="N24">
-        <v>1.027193386910329</v>
+        <v>0.9966023418612754</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02137952772671</v>
+        <v>0.9770526686970916</v>
       </c>
       <c r="D25">
-        <v>1.024145534709155</v>
+        <v>0.9865650759404417</v>
       </c>
       <c r="E25">
-        <v>1.022290817826016</v>
+        <v>0.9871157323676913</v>
       </c>
       <c r="F25">
-        <v>1.018953287827462</v>
+        <v>0.9490100487234988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029193107050463</v>
+        <v>1.039151416237173</v>
       </c>
       <c r="J25">
-        <v>1.027060569482102</v>
+        <v>1.002377773598298</v>
       </c>
       <c r="K25">
-        <v>1.027235146826479</v>
+        <v>0.9993755947030923</v>
       </c>
       <c r="L25">
-        <v>1.025386416773207</v>
+        <v>0.9999174079897186</v>
       </c>
       <c r="M25">
-        <v>1.022059720114045</v>
+        <v>0.9624550944572579</v>
       </c>
       <c r="N25">
-        <v>1.028519113296261</v>
+        <v>1.003801265011145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.985147911931704</v>
+        <v>1.004577685657129</v>
       </c>
       <c r="D2">
-        <v>0.9936813056681291</v>
+        <v>1.016464119694578</v>
       </c>
       <c r="E2">
-        <v>0.99363517403935</v>
+        <v>1.010307323251719</v>
       </c>
       <c r="F2">
-        <v>0.9611967004875356</v>
+        <v>1.0278193794116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041415624077375</v>
+        <v>1.050638613736194</v>
       </c>
       <c r="J2">
-        <v>1.007782106284081</v>
+        <v>1.026622335717886</v>
       </c>
       <c r="K2">
-        <v>1.005229377553505</v>
+        <v>1.027698751105517</v>
       </c>
       <c r="L2">
-        <v>1.005183899024078</v>
+        <v>1.021624904352106</v>
       </c>
       <c r="M2">
-        <v>0.9732244708863046</v>
+        <v>1.038904287524976</v>
       </c>
       <c r="N2">
-        <v>1.009213272469228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012502672573359</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039362523542615</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.0306555495221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907901262114304</v>
+        <v>1.008994519875776</v>
       </c>
       <c r="D3">
-        <v>0.9986511524774392</v>
+        <v>1.019749792511488</v>
       </c>
       <c r="E3">
-        <v>0.9981937242184307</v>
+        <v>1.013839475595596</v>
       </c>
       <c r="F3">
-        <v>0.9696542270418698</v>
+        <v>1.030858202938108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042953195633568</v>
+        <v>1.051751125802588</v>
       </c>
       <c r="J3">
-        <v>1.011535049777794</v>
+        <v>1.029242952662638</v>
       </c>
       <c r="K3">
-        <v>1.009301321202419</v>
+        <v>1.030136056733994</v>
       </c>
       <c r="L3">
-        <v>1.008849768971541</v>
+        <v>1.024298287941159</v>
       </c>
       <c r="M3">
-        <v>0.9806906989580639</v>
+        <v>1.041110903660136</v>
       </c>
       <c r="N3">
-        <v>1.01297154557317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013407212412308</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041108912906003</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032376284198012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9943404449270646</v>
+        <v>1.011794178233798</v>
       </c>
       <c r="D4">
-        <v>1.001782690804673</v>
+        <v>1.021839206547698</v>
       </c>
       <c r="E4">
-        <v>1.001068498713759</v>
+        <v>1.01608417444585</v>
       </c>
       <c r="F4">
-        <v>0.9749630987258199</v>
+        <v>1.032791465514596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043901500261886</v>
+        <v>1.052440790667547</v>
       </c>
       <c r="J4">
-        <v>1.013890039094315</v>
+        <v>1.030900924827394</v>
       </c>
       <c r="K4">
-        <v>1.011859647831523</v>
+        <v>1.031681007533371</v>
       </c>
       <c r="L4">
-        <v>1.0111540449816</v>
+        <v>1.025992277303331</v>
       </c>
       <c r="M4">
-        <v>0.9853733941794838</v>
+        <v>1.042509601500357</v>
       </c>
       <c r="N4">
-        <v>1.015329879244642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013979376059825</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04221588668546</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033469624545491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9958100708661962</v>
+        <v>1.012963256947477</v>
       </c>
       <c r="D5">
-        <v>1.00307995424059</v>
+        <v>1.022716403144655</v>
       </c>
       <c r="E5">
-        <v>1.0022599518696</v>
+        <v>1.017023606598416</v>
       </c>
       <c r="F5">
-        <v>0.9771580643825398</v>
+        <v>1.033598921885415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044289367549275</v>
+        <v>1.052725898681441</v>
       </c>
       <c r="J5">
-        <v>1.014863278760571</v>
+        <v>1.031594617109459</v>
       </c>
       <c r="K5">
-        <v>1.012917677579693</v>
+        <v>1.032330252569825</v>
       </c>
       <c r="L5">
-        <v>1.01210725999954</v>
+        <v>1.026701262686473</v>
       </c>
       <c r="M5">
-        <v>0.9873084736604553</v>
+        <v>1.043093197047801</v>
       </c>
       <c r="N5">
-        <v>1.016304501022856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014219591161611</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042677762189257</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033935934336813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9960555148055725</v>
+        <v>1.013165586080254</v>
       </c>
       <c r="D6">
-        <v>1.003296668601442</v>
+        <v>1.022872082494152</v>
       </c>
       <c r="E6">
-        <v>1.00245902226125</v>
+        <v>1.017187164575131</v>
       </c>
       <c r="F6">
-        <v>0.9775245093049195</v>
+        <v>1.033736972798317</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044353868738059</v>
+        <v>1.052776128444717</v>
       </c>
       <c r="J6">
-        <v>1.015025726456114</v>
+        <v>1.031717234976987</v>
       </c>
       <c r="K6">
-        <v>1.013094322486989</v>
+        <v>1.032447618306512</v>
       </c>
       <c r="L6">
-        <v>1.012266419984265</v>
+        <v>1.026826121014199</v>
       </c>
       <c r="M6">
-        <v>0.9876314714240609</v>
+        <v>1.043193680654513</v>
       </c>
       <c r="N6">
-        <v>1.01646717941276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014263085023494</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042757287983064</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03402773876539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9943601707768596</v>
+        <v>1.011828275897251</v>
       </c>
       <c r="D7">
-        <v>1.001800099289057</v>
+        <v>1.021874905351241</v>
       </c>
       <c r="E7">
-        <v>1.001084485113553</v>
+        <v>1.016114002284715</v>
       </c>
       <c r="F7">
-        <v>0.9749925699889593</v>
+        <v>1.032810180260673</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043906724946918</v>
+        <v>1.052452116112324</v>
       </c>
       <c r="J7">
-        <v>1.01390310858932</v>
+        <v>1.030928195652822</v>
       </c>
       <c r="K7">
-        <v>1.01187385296278</v>
+        <v>1.031713382625104</v>
       </c>
       <c r="L7">
-        <v>1.011166841882784</v>
+        <v>1.026018821604761</v>
       </c>
       <c r="M7">
-        <v>0.985399380003798</v>
+        <v>1.042525233578786</v>
       </c>
       <c r="N7">
-        <v>1.015342967299829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013991645519739</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042228258397971</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033512799474466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870762687995414</v>
+        <v>1.006106199381661</v>
       </c>
       <c r="D8">
-        <v>0.9953789312837391</v>
+        <v>1.017612430722056</v>
       </c>
       <c r="E8">
-        <v>0.9951917899101125</v>
+        <v>1.011531679424929</v>
       </c>
       <c r="F8">
-        <v>0.9640903154528597</v>
+        <v>1.028863407462353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041945128518359</v>
+        <v>1.051030426968863</v>
       </c>
       <c r="J8">
-        <v>1.009066120578415</v>
+        <v>1.027538744458326</v>
       </c>
       <c r="K8">
-        <v>1.006621863880282</v>
+        <v>1.028559000466633</v>
       </c>
       <c r="L8">
-        <v>1.006437287794409</v>
+        <v>1.022557679984536</v>
       </c>
       <c r="M8">
-        <v>0.9757797256668174</v>
+        <v>1.039666099512543</v>
       </c>
       <c r="N8">
-        <v>1.010499110211138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01282274404999</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039965447353155</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031286972597048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973414166913154</v>
+        <v>0.9955237433084213</v>
       </c>
       <c r="D9">
-        <v>0.983371994957263</v>
+        <v>1.009768692453856</v>
       </c>
       <c r="E9">
-        <v>0.9841933578048317</v>
+        <v>1.003101227259143</v>
       </c>
       <c r="F9">
-        <v>0.9435095694831888</v>
+        <v>1.021631648150469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038113876800651</v>
+        <v>1.048275531040867</v>
       </c>
       <c r="J9">
-        <v>0.9999419792865289</v>
+        <v>1.021235566019641</v>
       </c>
       <c r="K9">
-        <v>0.9967407367519291</v>
+        <v>1.022705242994485</v>
       </c>
       <c r="L9">
-        <v>0.9975482006096452</v>
+        <v>1.016144188803767</v>
       </c>
       <c r="M9">
-        <v>0.9575908643542347</v>
+        <v>1.034383252070722</v>
       </c>
       <c r="N9">
-        <v>1.001362011592064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010643458539525</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035784412492043</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027144657101299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9636618141438967</v>
+        <v>0.988199457399063</v>
       </c>
       <c r="D10">
-        <v>0.9748296754387857</v>
+        <v>1.004393562380574</v>
       </c>
       <c r="E10">
-        <v>0.976383922545308</v>
+        <v>0.9973150917042343</v>
       </c>
       <c r="F10">
-        <v>0.9286843754660864</v>
+        <v>1.016840329166847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035280122574395</v>
+        <v>1.046318383526144</v>
       </c>
       <c r="J10">
-        <v>0.993395222589588</v>
+        <v>1.016889219092122</v>
       </c>
       <c r="K10">
-        <v>0.9896687617984006</v>
+        <v>1.018683940242958</v>
       </c>
       <c r="L10">
-        <v>0.9911930782910785</v>
+        <v>1.011732992804329</v>
       </c>
       <c r="M10">
-        <v>0.9444728085567353</v>
+        <v>1.030912040605893</v>
       </c>
       <c r="N10">
-        <v>0.9948059577496899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009156721023488</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033088934864077</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02431830457554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9592632882824476</v>
+        <v>0.9855143762395061</v>
       </c>
       <c r="D11">
-        <v>0.9709844966052494</v>
+        <v>1.002521698160513</v>
       </c>
       <c r="E11">
-        <v>0.9728726936438017</v>
+        <v>0.9953029670802703</v>
       </c>
       <c r="F11">
-        <v>0.921954004959368</v>
+        <v>1.016444809861681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033979582133178</v>
+        <v>1.045783623742289</v>
       </c>
       <c r="J11">
-        <v>0.9904347592813801</v>
+        <v>1.01550244229231</v>
       </c>
       <c r="K11">
-        <v>0.9864751624685999</v>
+        <v>1.017396215119968</v>
       </c>
       <c r="L11">
-        <v>0.9883249881345004</v>
+        <v>1.010314009523386</v>
       </c>
       <c r="M11">
-        <v>0.9385148083288777</v>
+        <v>1.031063124669141</v>
       </c>
       <c r="N11">
-        <v>0.9918412902440146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008811453230803</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033647155469367</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.023441149184167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9576008558731417</v>
+        <v>0.9846419542639964</v>
       </c>
       <c r="D12">
-        <v>0.9695324187514446</v>
+        <v>1.001937035297582</v>
       </c>
       <c r="E12">
-        <v>0.9715473748075421</v>
+        <v>0.9946873397780478</v>
       </c>
       <c r="F12">
-        <v>0.9194024408169235</v>
+        <v>1.016853060612836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033484758041744</v>
+        <v>1.045669615575462</v>
       </c>
       <c r="J12">
-        <v>0.9893147040322797</v>
+        <v>1.01511082269885</v>
       </c>
       <c r="K12">
-        <v>0.9852675715903436</v>
+        <v>1.017027218623309</v>
       </c>
       <c r="L12">
-        <v>0.9872407661482776</v>
+        <v>1.009917034700212</v>
       </c>
       <c r="M12">
-        <v>0.9362557750096087</v>
+        <v>1.031664351707928</v>
       </c>
       <c r="N12">
-        <v>0.9907196443879884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008775805727432</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03445058054742</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.023180248924711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.957958787343991</v>
+        <v>0.9851378361554161</v>
       </c>
       <c r="D13">
-        <v>0.9698450035163891</v>
+        <v>1.002337290476282</v>
       </c>
       <c r="E13">
-        <v>0.9718326426199879</v>
+        <v>0.995130994568311</v>
       </c>
       <c r="F13">
-        <v>0.919952181404925</v>
+        <v>1.017940431038274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033591443219108</v>
+        <v>1.045891376903558</v>
       </c>
       <c r="J13">
-        <v>0.9895559097656818</v>
+        <v>1.015489809006463</v>
       </c>
       <c r="K13">
-        <v>0.9855275978690028</v>
+        <v>1.017375964355611</v>
       </c>
       <c r="L13">
-        <v>0.9874742147201292</v>
+        <v>1.01030772565245</v>
       </c>
       <c r="M13">
-        <v>0.9367424999672627</v>
+        <v>1.032688899072487</v>
       </c>
       <c r="N13">
-        <v>0.9909611926611985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00899031725055</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035538323772849</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023424298737914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9591264688816646</v>
+        <v>0.9860993816389719</v>
       </c>
       <c r="D14">
-        <v>0.9708649644252623</v>
+        <v>1.003060838035847</v>
       </c>
       <c r="E14">
-        <v>0.9727635826411296</v>
+        <v>0.9959163022537405</v>
       </c>
       <c r="F14">
-        <v>0.9217441753661803</v>
+        <v>1.018994772135823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033938923791536</v>
+        <v>1.046194180836056</v>
       </c>
       <c r="J14">
-        <v>0.9903426009760057</v>
+        <v>1.016098597539157</v>
       </c>
       <c r="K14">
-        <v>0.986375788081896</v>
+        <v>1.017942154781993</v>
       </c>
       <c r="L14">
-        <v>0.9882357600808201</v>
+        <v>1.01093271481222</v>
       </c>
       <c r="M14">
-        <v>0.9383290402559261</v>
+        <v>1.033583661339879</v>
       </c>
       <c r="N14">
-        <v>0.9917490010632756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00925144609034</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036419411174623</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.023826072973663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9598420517648215</v>
+        <v>0.9866472716007308</v>
       </c>
       <c r="D15">
-        <v>0.971490182841543</v>
+        <v>1.00346810410528</v>
       </c>
       <c r="E15">
-        <v>0.9733343192014517</v>
+        <v>0.9963532014269132</v>
       </c>
       <c r="F15">
-        <v>0.9228412857285304</v>
+        <v>1.019435672774976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034151439184336</v>
+        <v>1.046351046909175</v>
       </c>
       <c r="J15">
-        <v>0.9908245543265766</v>
+        <v>1.016431764192313</v>
       </c>
       <c r="K15">
-        <v>0.9868955060838978</v>
+        <v>1.018253346395193</v>
       </c>
       <c r="L15">
-        <v>0.9887024254560467</v>
+        <v>1.011271908162299</v>
       </c>
       <c r="M15">
-        <v>0.9393003322625493</v>
+        <v>1.03393019294503</v>
       </c>
       <c r="N15">
-        <v>0.9922316388428852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009376882129881</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036730932199937</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024052063625837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639498440571214</v>
+        <v>0.9896676776641584</v>
       </c>
       <c r="D16">
-        <v>0.9750816339532398</v>
+        <v>1.005675434777602</v>
       </c>
       <c r="E16">
-        <v>0.9766140859473361</v>
+        <v>0.9987219094003638</v>
       </c>
       <c r="F16">
-        <v>0.9291240948999633</v>
+        <v>1.021311316940557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035364828477176</v>
+        <v>1.047164190823257</v>
       </c>
       <c r="J16">
-        <v>0.9935889249506885</v>
+        <v>1.01821919978968</v>
       </c>
       <c r="K16">
-        <v>0.989877809612915</v>
+        <v>1.019906589159355</v>
       </c>
       <c r="L16">
-        <v>0.9913808571546981</v>
+        <v>1.013077532849381</v>
       </c>
       <c r="M16">
-        <v>0.9448620207769519</v>
+        <v>1.035270582251637</v>
       </c>
       <c r="N16">
-        <v>0.9949999351903611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009971768743614</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037751568493812</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025224205577816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9664780250372261</v>
+        <v>0.9914866748226376</v>
       </c>
       <c r="D17">
-        <v>0.9772940656228257</v>
+        <v>1.006996723666239</v>
       </c>
       <c r="E17">
-        <v>0.9786355991694027</v>
+        <v>1.000134831197126</v>
       </c>
       <c r="F17">
-        <v>0.9329786431232115</v>
+        <v>1.022196675736592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036105806389652</v>
+        <v>1.047628373482887</v>
       </c>
       <c r="J17">
-        <v>0.9952882751411128</v>
+        <v>1.019275984913818</v>
       </c>
       <c r="K17">
-        <v>0.9917122798643423</v>
+        <v>1.020883177139362</v>
       </c>
       <c r="L17">
-        <v>0.9930288885074774</v>
+        <v>1.0141404967471</v>
       </c>
       <c r="M17">
-        <v>0.9482735409349305</v>
+        <v>1.035826396854813</v>
       </c>
       <c r="N17">
-        <v>0.9967016986529741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010293245391896</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038061570005532</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.025917326663361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9679358824296203</v>
+        <v>0.9924026978859247</v>
       </c>
       <c r="D18">
-        <v>0.9785705584609643</v>
+        <v>1.007634615989437</v>
       </c>
       <c r="E18">
-        <v>0.9798023184939462</v>
+        <v>1.00081587066718</v>
       </c>
       <c r="F18">
-        <v>0.9351972968085479</v>
+        <v>1.022195008012698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03653096569705</v>
+        <v>1.047809551530415</v>
       </c>
       <c r="J18">
-        <v>0.9962674641098601</v>
+        <v>1.019755826846515</v>
       </c>
       <c r="K18">
-        <v>0.9927697367092014</v>
+        <v>1.02132285457279</v>
       </c>
       <c r="L18">
-        <v>0.9939790422550795</v>
+        <v>1.014620535965978</v>
       </c>
       <c r="M18">
-        <v>0.9502369348949656</v>
+        <v>1.035641317332233</v>
       </c>
       <c r="N18">
-        <v>0.9976822781823715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010387444039131</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037676928983717</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026216401317186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1334,105 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9684301899818996</v>
+        <v>0.9924760522687676</v>
       </c>
       <c r="D19">
-        <v>0.9790034900523781</v>
+        <v>1.007645908600432</v>
       </c>
       <c r="E19">
-        <v>0.9801980829219453</v>
+        <v>1.00081328138157</v>
       </c>
       <c r="F19">
-        <v>0.9359489104147016</v>
+        <v>1.021324867691102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036674759781345</v>
+        <v>1.047716565075236</v>
       </c>
       <c r="J19">
-        <v>0.9965993479239907</v>
+        <v>1.019690040859203</v>
       </c>
       <c r="K19">
-        <v>0.9931282176380355</v>
+        <v>1.021270113541267</v>
       </c>
       <c r="L19">
-        <v>0.9943011750480846</v>
+        <v>1.01455352314031</v>
       </c>
       <c r="M19">
-        <v>0.9509020277122512</v>
+        <v>1.034722759803517</v>
       </c>
       <c r="N19">
-        <v>0.9980146333095857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010274661636325</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036623973993591</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026185593286944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9662085268320606</v>
+        <v>0.9901538072680801</v>
       </c>
       <c r="D20">
-        <v>0.9770581512807045</v>
+        <v>1.00585137642247</v>
       </c>
       <c r="E20">
-        <v>0.978420003020768</v>
+        <v>0.9988644367745607</v>
       </c>
       <c r="F20">
-        <v>0.932568185395666</v>
+        <v>1.018111993038739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036027039513527</v>
+        <v>1.046854081088201</v>
       </c>
       <c r="J20">
-        <v>0.9951072039654699</v>
+        <v>1.018069631476645</v>
       </c>
       <c r="K20">
-        <v>0.9915167685468904</v>
+        <v>1.019792110885003</v>
       </c>
       <c r="L20">
-        <v>0.9928532297041766</v>
+        <v>1.01292728312493</v>
       </c>
       <c r="M20">
-        <v>0.9479102855840439</v>
+        <v>1.031843669720032</v>
       </c>
       <c r="N20">
-        <v>0.9965203703354925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009569844577163</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033815608083308</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025144543664139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587834252047832</v>
+        <v>0.9845137376772075</v>
       </c>
       <c r="D21">
-        <v>0.970565284361034</v>
+        <v>1.001705352201219</v>
       </c>
       <c r="E21">
-        <v>0.972490040147269</v>
+        <v>0.9944018924907709</v>
       </c>
       <c r="F21">
-        <v>0.9212179451383028</v>
+        <v>1.014175742341026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033836929729337</v>
+        <v>1.045279448215249</v>
       </c>
       <c r="J21">
-        <v>0.990111516583256</v>
+        <v>1.014673511960218</v>
       </c>
       <c r="K21">
-        <v>0.9861266203624378</v>
+        <v>1.016654488029566</v>
       </c>
       <c r="L21">
-        <v>0.9880120375417429</v>
+        <v>1.009490104593932</v>
       </c>
       <c r="M21">
-        <v>0.9378631496000956</v>
+        <v>1.02889343740769</v>
       </c>
       <c r="N21">
-        <v>0.9915175885041826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008383377455472</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031439550203083</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022929359194232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9539480461747496</v>
+        <v>0.9808987217276521</v>
       </c>
       <c r="D22">
-        <v>0.966344142720451</v>
+        <v>0.9990521164865764</v>
       </c>
       <c r="E22">
-        <v>0.9686386584097844</v>
+        <v>0.991553087158115</v>
       </c>
       <c r="F22">
-        <v>0.9137800642628755</v>
+        <v>1.011755428577096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032391551074234</v>
+        <v>1.044265450936844</v>
       </c>
       <c r="J22">
-        <v>0.9868515563767011</v>
+        <v>1.012500800798201</v>
       </c>
       <c r="K22">
-        <v>0.9826131704592371</v>
+        <v>1.014642374550464</v>
       </c>
       <c r="L22">
-        <v>0.9848580856353548</v>
+        <v>1.00729375701551</v>
       </c>
       <c r="M22">
-        <v>0.9312776062146386</v>
+        <v>1.027097550613674</v>
       </c>
       <c r="N22">
-        <v>0.9882529987802119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007628149817327</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030018206599569</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02149294438322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9565280127162509</v>
+        <v>0.9828045392401632</v>
       </c>
       <c r="D23">
-        <v>0.9685956794161961</v>
+        <v>1.000440546745348</v>
       </c>
       <c r="E23">
-        <v>0.9706925957149335</v>
+        <v>0.9930512122925209</v>
       </c>
       <c r="F23">
-        <v>0.9177534317457476</v>
+        <v>1.013034859667825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033164512251374</v>
+        <v>1.044799167319333</v>
       </c>
       <c r="J23">
-        <v>0.9885915618592213</v>
+        <v>1.013639711209542</v>
       </c>
       <c r="K23">
-        <v>0.9844881039212489</v>
+        <v>1.015690672095436</v>
       </c>
       <c r="L23">
-        <v>0.9865410121654441</v>
+        <v>1.008445558428964</v>
       </c>
       <c r="M23">
-        <v>0.9347957564268825</v>
+        <v>1.028045505495661</v>
       </c>
       <c r="N23">
-        <v>0.9899954752700985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008020800307347</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030768460046776</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022224359517718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9663303531851601</v>
+        <v>0.9901596265097342</v>
       </c>
       <c r="D24">
-        <v>0.9771647938880602</v>
+        <v>1.00583294894386</v>
       </c>
       <c r="E24">
-        <v>0.9785174598262414</v>
+        <v>0.998855194131315</v>
       </c>
       <c r="F24">
-        <v>0.9327537448072633</v>
+        <v>1.01798819928983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036062652579841</v>
+        <v>1.046831714492824</v>
       </c>
       <c r="J24">
-        <v>0.9951890592473635</v>
+        <v>1.018041807279407</v>
       </c>
       <c r="K24">
-        <v>0.9916051503867693</v>
+        <v>1.019758399959279</v>
       </c>
       <c r="L24">
-        <v>0.9929326366005397</v>
+        <v>1.012902443714289</v>
       </c>
       <c r="M24">
-        <v>0.9480745065840718</v>
+        <v>1.031706618101578</v>
       </c>
       <c r="N24">
-        <v>0.9966023418612754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00954379293244</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03366601901449</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025092902493991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9770526686970916</v>
+        <v>0.9983492783461235</v>
       </c>
       <c r="D25">
-        <v>0.9865650759404417</v>
+        <v>1.01187227943345</v>
       </c>
       <c r="E25">
-        <v>0.9871157323676913</v>
+        <v>1.005350634238737</v>
       </c>
       <c r="F25">
-        <v>0.9490100487234988</v>
+        <v>1.023547339355583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039151416237173</v>
+        <v>1.049029201808383</v>
       </c>
       <c r="J25">
-        <v>1.002377773598298</v>
+        <v>1.022932323851207</v>
       </c>
       <c r="K25">
-        <v>0.9993755947030923</v>
+        <v>1.024289047335248</v>
       </c>
       <c r="L25">
-        <v>0.9999174079897186</v>
+        <v>1.017866452486232</v>
       </c>
       <c r="M25">
-        <v>0.9624550944572579</v>
+        <v>1.035790788517489</v>
       </c>
       <c r="N25">
-        <v>1.003801265011145</v>
+        <v>1.011235200470683</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036898389693397</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028293479311801</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004577685657129</v>
+        <v>1.005154172126422</v>
       </c>
       <c r="D2">
-        <v>1.016464119694578</v>
+        <v>1.016842748237283</v>
       </c>
       <c r="E2">
-        <v>1.010307323251719</v>
+        <v>1.010849673047438</v>
       </c>
       <c r="F2">
-        <v>1.0278193794116</v>
+        <v>1.028066583736755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050638613736194</v>
+        <v>1.050871925687907</v>
       </c>
       <c r="J2">
-        <v>1.026622335717886</v>
+        <v>1.027181808122265</v>
       </c>
       <c r="K2">
-        <v>1.027698751105517</v>
+        <v>1.028072319616009</v>
       </c>
       <c r="L2">
-        <v>1.021624904352106</v>
+        <v>1.022159896088181</v>
       </c>
       <c r="M2">
-        <v>1.038904287524976</v>
+        <v>1.039148278429596</v>
       </c>
       <c r="N2">
-        <v>1.012502672573359</v>
+        <v>1.014260076874321</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039362523542615</v>
+        <v>1.039555626263906</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0306555495221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030928565845431</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019445611444808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008994519875776</v>
+        <v>1.009252236953921</v>
       </c>
       <c r="D3">
-        <v>1.019749792511488</v>
+        <v>1.019722010710582</v>
       </c>
       <c r="E3">
-        <v>1.013839475595596</v>
+        <v>1.014099814311069</v>
       </c>
       <c r="F3">
-        <v>1.030858202938108</v>
+        <v>1.030968674330649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051751125802588</v>
+        <v>1.051855697822591</v>
       </c>
       <c r="J3">
-        <v>1.029242952662638</v>
+        <v>1.02949381552861</v>
       </c>
       <c r="K3">
-        <v>1.030136056733994</v>
+        <v>1.030108613504704</v>
       </c>
       <c r="L3">
-        <v>1.024298287941159</v>
+        <v>1.024555408882482</v>
       </c>
       <c r="M3">
-        <v>1.041110903660136</v>
+        <v>1.041220064696677</v>
       </c>
       <c r="N3">
-        <v>1.013407212412308</v>
+        <v>1.014887402232008</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041108912906003</v>
+        <v>1.041195306469322</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032376284198012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032365459432389</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019901094222923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011794178233798</v>
+        <v>1.011852423600987</v>
       </c>
       <c r="D4">
-        <v>1.021839206547698</v>
+        <v>1.021555511549906</v>
       </c>
       <c r="E4">
-        <v>1.01608417444585</v>
+        <v>1.01616783023407</v>
       </c>
       <c r="F4">
-        <v>1.032791465514596</v>
+        <v>1.032816426554935</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052440790667547</v>
+        <v>1.052464463279045</v>
       </c>
       <c r="J4">
-        <v>1.030900924827394</v>
+        <v>1.030957726809527</v>
       </c>
       <c r="K4">
-        <v>1.031681007533371</v>
+        <v>1.031400559289212</v>
       </c>
       <c r="L4">
-        <v>1.025992277303331</v>
+        <v>1.026074962672558</v>
       </c>
       <c r="M4">
-        <v>1.042509601500357</v>
+        <v>1.042534284384961</v>
       </c>
       <c r="N4">
-        <v>1.013979376059825</v>
+        <v>1.015284710130729</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04221588668546</v>
+        <v>1.042235421487063</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033469624545491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033279977003709</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020187672129808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012963256947477</v>
+        <v>1.012938399595247</v>
       </c>
       <c r="D5">
-        <v>1.022716403144655</v>
+        <v>1.022325909463142</v>
       </c>
       <c r="E5">
-        <v>1.017023606598416</v>
+        <v>1.017033548586872</v>
       </c>
       <c r="F5">
-        <v>1.033598921885415</v>
+        <v>1.033588270363203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052725898681441</v>
+        <v>1.052715789033961</v>
       </c>
       <c r="J5">
-        <v>1.031594617109459</v>
+        <v>1.031570357194732</v>
       </c>
       <c r="K5">
-        <v>1.032330252569825</v>
+        <v>1.031944107732848</v>
       </c>
       <c r="L5">
-        <v>1.026701262686473</v>
+        <v>1.026711092474843</v>
       </c>
       <c r="M5">
-        <v>1.043093197047801</v>
+        <v>1.043082661051351</v>
       </c>
       <c r="N5">
-        <v>1.014219591161611</v>
+        <v>1.015451571587752</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042677762189257</v>
+        <v>1.04266942367953</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033935934336813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033672258529461</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020308460610704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013165586080254</v>
+        <v>1.013125902350728</v>
       </c>
       <c r="D6">
-        <v>1.022872082494152</v>
+        <v>1.022462735915027</v>
       </c>
       <c r="E6">
-        <v>1.017187164575131</v>
+        <v>1.017183876429075</v>
       </c>
       <c r="F6">
-        <v>1.033736972798317</v>
+        <v>1.033719968376585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052776128444717</v>
+        <v>1.05275998696412</v>
       </c>
       <c r="J6">
-        <v>1.031717234976987</v>
+        <v>1.031678500080236</v>
       </c>
       <c r="K6">
-        <v>1.032447618306512</v>
+        <v>1.032042809396972</v>
       </c>
       <c r="L6">
-        <v>1.026826121014199</v>
+        <v>1.026822869803118</v>
       </c>
       <c r="M6">
-        <v>1.043193680654513</v>
+        <v>1.043176859814811</v>
       </c>
       <c r="N6">
-        <v>1.014263085023494</v>
+        <v>1.015481719209598</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042757287983064</v>
+        <v>1.042743975457642</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03402773876539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033751734926308</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020331334336115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011828275897251</v>
+        <v>1.011892119785178</v>
       </c>
       <c r="D7">
-        <v>1.021874905351241</v>
+        <v>1.021594659563303</v>
       </c>
       <c r="E7">
-        <v>1.016114002284715</v>
+        <v>1.016202831275167</v>
       </c>
       <c r="F7">
-        <v>1.032810180260673</v>
+        <v>1.032837540521378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052452116112324</v>
+        <v>1.052478064398627</v>
       </c>
       <c r="J7">
-        <v>1.030928195652822</v>
+        <v>1.030990458150825</v>
       </c>
       <c r="K7">
-        <v>1.031713382625104</v>
+        <v>1.031436342754599</v>
       </c>
       <c r="L7">
-        <v>1.026018821604761</v>
+        <v>1.026106620592433</v>
       </c>
       <c r="M7">
-        <v>1.042525233578786</v>
+        <v>1.042552289063861</v>
       </c>
       <c r="N7">
-        <v>1.013991645519739</v>
+        <v>1.015322073069944</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042228258397971</v>
+        <v>1.042249670948895</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033512799474466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033327561416235</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020199360735697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006106199381661</v>
+        <v>1.006598722669992</v>
       </c>
       <c r="D8">
-        <v>1.017612430722056</v>
+        <v>1.017872155061274</v>
       </c>
       <c r="E8">
-        <v>1.011531679424929</v>
+        <v>1.012000968469872</v>
       </c>
       <c r="F8">
-        <v>1.028863407462353</v>
+        <v>1.029074581430377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051030426968863</v>
+        <v>1.051229934422537</v>
       </c>
       <c r="J8">
-        <v>1.027538744458326</v>
+        <v>1.02801722638085</v>
       </c>
       <c r="K8">
-        <v>1.028559000466633</v>
+        <v>1.028815358565294</v>
       </c>
       <c r="L8">
-        <v>1.022557679984536</v>
+        <v>1.023020796254727</v>
       </c>
       <c r="M8">
-        <v>1.039666099512543</v>
+        <v>1.039874610517128</v>
       </c>
       <c r="N8">
-        <v>1.01282274404999</v>
+        <v>1.014570176063484</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039965447353155</v>
+        <v>1.040130469936606</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031286972597048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031479368344699</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019619165521766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9955237433084213</v>
+        <v>0.9968024193948455</v>
       </c>
       <c r="D9">
-        <v>1.009768692453856</v>
+        <v>1.011017793189339</v>
       </c>
       <c r="E9">
-        <v>1.003101227259143</v>
+        <v>1.00426496487449</v>
       </c>
       <c r="F9">
-        <v>1.021631648150469</v>
+        <v>1.022180341249614</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048275531040867</v>
+        <v>1.048790277780284</v>
       </c>
       <c r="J9">
-        <v>1.021235566019641</v>
+        <v>1.022468599974916</v>
       </c>
       <c r="K9">
-        <v>1.022705242994485</v>
+        <v>1.023934608234203</v>
       </c>
       <c r="L9">
-        <v>1.016144188803767</v>
+        <v>1.017289222922206</v>
       </c>
       <c r="M9">
-        <v>1.034383252070722</v>
+        <v>1.034923523439263</v>
       </c>
       <c r="N9">
-        <v>1.010643458539525</v>
+        <v>1.013073296081311</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035784412492043</v>
+        <v>1.036212003748719</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027144657101299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028024802251507</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018511666601369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.988199457399063</v>
+        <v>0.9900729619263057</v>
       </c>
       <c r="D10">
-        <v>1.004393562380574</v>
+        <v>1.006365463711347</v>
       </c>
       <c r="E10">
-        <v>0.9973150917042343</v>
+        <v>0.9990028501453957</v>
       </c>
       <c r="F10">
-        <v>1.016840329166847</v>
+        <v>1.017644220702615</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046318383526144</v>
+        <v>1.047069228091243</v>
       </c>
       <c r="J10">
-        <v>1.016889219092122</v>
+        <v>1.018686052461361</v>
       </c>
       <c r="K10">
-        <v>1.018683940242958</v>
+        <v>1.020620731057593</v>
       </c>
       <c r="L10">
-        <v>1.011732992804329</v>
+        <v>1.013390131810713</v>
       </c>
       <c r="M10">
-        <v>1.030912040605893</v>
+        <v>1.031702047106233</v>
       </c>
       <c r="N10">
-        <v>1.009156721023488</v>
+        <v>1.012178107315657</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033088934864077</v>
+        <v>1.033714138816486</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02431830457554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025700349046628</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017761714837346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9855143762395061</v>
+        <v>0.9876052385005926</v>
       </c>
       <c r="D11">
-        <v>1.002521698160513</v>
+        <v>1.004752866301152</v>
       </c>
       <c r="E11">
-        <v>0.9953029670802703</v>
+        <v>0.9971702703198478</v>
       </c>
       <c r="F11">
-        <v>1.016444809861681</v>
+        <v>1.017338035012729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045783623742289</v>
+        <v>1.046619472774175</v>
       </c>
       <c r="J11">
-        <v>1.01550244229231</v>
+        <v>1.017502902067355</v>
       </c>
       <c r="K11">
-        <v>1.017396215119968</v>
+        <v>1.019585703710053</v>
       </c>
       <c r="L11">
-        <v>1.010314009523386</v>
+        <v>1.012145749230156</v>
       </c>
       <c r="M11">
-        <v>1.031063124669141</v>
+        <v>1.031940224551572</v>
       </c>
       <c r="N11">
-        <v>1.008811453230803</v>
+        <v>1.012173825046125</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033647155469367</v>
+        <v>1.034340931189548</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023441149184167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025005058767895</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01760018296453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9846419542639964</v>
+        <v>0.9867820217712029</v>
       </c>
       <c r="D12">
-        <v>1.001937035297582</v>
+        <v>1.004232962453076</v>
       </c>
       <c r="E12">
-        <v>0.9946873397780478</v>
+        <v>0.9965867376651779</v>
       </c>
       <c r="F12">
-        <v>1.016853060612836</v>
+        <v>1.017764457951502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045669615575462</v>
+        <v>1.046524183665093</v>
       </c>
       <c r="J12">
-        <v>1.01511082269885</v>
+        <v>1.017156519683108</v>
       </c>
       <c r="K12">
-        <v>1.017027218623309</v>
+        <v>1.019279512444884</v>
       </c>
       <c r="L12">
-        <v>1.009917034700212</v>
+        <v>1.011779623858523</v>
       </c>
       <c r="M12">
-        <v>1.031664351707928</v>
+        <v>1.032559053247948</v>
       </c>
       <c r="N12">
-        <v>1.008775805727432</v>
+        <v>1.012242726098419</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03445058054742</v>
+        <v>1.035158037376955</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023180248924711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02478857071906</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017580049694433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9851378361554161</v>
+        <v>0.9871850690578868</v>
       </c>
       <c r="D13">
-        <v>1.002337290476282</v>
+        <v>1.004539036316599</v>
       </c>
       <c r="E13">
-        <v>0.995130994568311</v>
+        <v>0.9969374135075928</v>
       </c>
       <c r="F13">
-        <v>1.017940431038274</v>
+        <v>1.018810214853848</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045891376903558</v>
+        <v>1.046708787016343</v>
       </c>
       <c r="J13">
-        <v>1.015489809006463</v>
+        <v>1.01744721382572</v>
       </c>
       <c r="K13">
-        <v>1.017375964355611</v>
+        <v>1.019536045630463</v>
       </c>
       <c r="L13">
-        <v>1.01030772565245</v>
+        <v>1.012079291980386</v>
       </c>
       <c r="M13">
-        <v>1.032688899072487</v>
+        <v>1.033542845943245</v>
       </c>
       <c r="N13">
-        <v>1.00899031725055</v>
+        <v>1.012345958769047</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035538323772849</v>
+        <v>1.036213384505079</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023424298737914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024967176856977</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017675985322032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9860993816389719</v>
+        <v>0.988019715165748</v>
       </c>
       <c r="D14">
-        <v>1.003060838035847</v>
+        <v>1.005127168940017</v>
       </c>
       <c r="E14">
-        <v>0.9959163022537405</v>
+        <v>0.9976038271063032</v>
       </c>
       <c r="F14">
-        <v>1.018994772135823</v>
+        <v>1.019809587287942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046194180836056</v>
+        <v>1.046961219732699</v>
       </c>
       <c r="J14">
-        <v>1.016098597539157</v>
+        <v>1.017935902793158</v>
       </c>
       <c r="K14">
-        <v>1.017942154781993</v>
+        <v>1.019969880663463</v>
       </c>
       <c r="L14">
-        <v>1.01093271481222</v>
+        <v>1.012588102047997</v>
       </c>
       <c r="M14">
-        <v>1.033583661339879</v>
+        <v>1.034383841652253</v>
       </c>
       <c r="N14">
-        <v>1.00925144609034</v>
+        <v>1.012434527339952</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036419411174623</v>
+        <v>1.03705188282697</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.023826072973663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025275498015393</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017796021633925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866472716007308</v>
+        <v>0.9885050220817045</v>
       </c>
       <c r="D15">
-        <v>1.00346810410528</v>
+        <v>1.00546567778534</v>
       </c>
       <c r="E15">
-        <v>0.9963532014269132</v>
+        <v>0.9979840758339695</v>
       </c>
       <c r="F15">
-        <v>1.019435672774976</v>
+        <v>1.02022374410215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046351046909175</v>
+        <v>1.0470933094155</v>
       </c>
       <c r="J15">
-        <v>1.016431764192313</v>
+        <v>1.018209913452628</v>
       </c>
       <c r="K15">
-        <v>1.018253346395193</v>
+        <v>1.020213891416849</v>
       </c>
       <c r="L15">
-        <v>1.011271908162299</v>
+        <v>1.012871970274136</v>
       </c>
       <c r="M15">
-        <v>1.03393019294503</v>
+        <v>1.034704221692332</v>
       </c>
       <c r="N15">
-        <v>1.009376882129881</v>
+        <v>1.012472154027617</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036730932199937</v>
+        <v>1.037342717250773</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024052063625837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025454549411514</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017855874124755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9896676776641584</v>
+        <v>0.9912311713293479</v>
       </c>
       <c r="D16">
-        <v>1.005675434777602</v>
+        <v>1.007336375811662</v>
       </c>
       <c r="E16">
-        <v>0.9987219094003638</v>
+        <v>1.000095500768044</v>
       </c>
       <c r="F16">
-        <v>1.021311316940557</v>
+        <v>1.021974826147526</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047164190823257</v>
+        <v>1.047790069431511</v>
       </c>
       <c r="J16">
-        <v>1.01821919978968</v>
+        <v>1.019719154458894</v>
       </c>
       <c r="K16">
-        <v>1.019906589159355</v>
+        <v>1.021538128835519</v>
       </c>
       <c r="L16">
-        <v>1.013077532849381</v>
+        <v>1.014426358457651</v>
       </c>
       <c r="M16">
-        <v>1.035270582251637</v>
+        <v>1.035922791450183</v>
       </c>
       <c r="N16">
-        <v>1.009971768743614</v>
+        <v>1.012657643269817</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037751568493812</v>
+        <v>1.038267083376736</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025224205577816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026394352100586</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018146254683618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9914866748226376</v>
+        <v>0.9928996308389674</v>
       </c>
       <c r="D17">
-        <v>1.006996723666239</v>
+        <v>1.008476697173055</v>
       </c>
       <c r="E17">
-        <v>1.000134831197126</v>
+        <v>1.001380426929922</v>
       </c>
       <c r="F17">
-        <v>1.022196675736592</v>
+        <v>1.022796888901916</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047628373482887</v>
+        <v>1.048194698804043</v>
       </c>
       <c r="J17">
-        <v>1.019275984913818</v>
+        <v>1.020633427039386</v>
       </c>
       <c r="K17">
-        <v>1.020883177139362</v>
+        <v>1.02233771386103</v>
       </c>
       <c r="L17">
-        <v>1.0141404967471</v>
+        <v>1.015364295476602</v>
       </c>
       <c r="M17">
-        <v>1.035826396854813</v>
+        <v>1.03641667379097</v>
       </c>
       <c r="N17">
-        <v>1.010293245391896</v>
+        <v>1.012783885737288</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038061570005532</v>
+        <v>1.038528179456862</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025917326663361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026962561219348</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018308808834479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9924026978859247</v>
+        <v>0.9937675491144101</v>
       </c>
       <c r="D18">
-        <v>1.007634615989437</v>
+        <v>1.009046946916595</v>
       </c>
       <c r="E18">
-        <v>1.00081587066718</v>
+        <v>1.002026657625555</v>
       </c>
       <c r="F18">
-        <v>1.022195008012698</v>
+        <v>1.022775875877608</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047809551530415</v>
+        <v>1.048357073474457</v>
       </c>
       <c r="J18">
-        <v>1.019755826846515</v>
+        <v>1.021068096397635</v>
       </c>
       <c r="K18">
-        <v>1.02132285457279</v>
+        <v>1.022711324394424</v>
       </c>
       <c r="L18">
-        <v>1.014620535965978</v>
+        <v>1.01581049977772</v>
       </c>
       <c r="M18">
-        <v>1.035641317332233</v>
+        <v>1.036212717324281</v>
       </c>
       <c r="N18">
-        <v>1.010387444039131</v>
+        <v>1.012816837530407</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037676928983717</v>
+        <v>1.038128710899471</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026216401317186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027213792083731</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018359896322749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9924760522687676</v>
+        <v>0.9938781947918632</v>
       </c>
       <c r="D19">
-        <v>1.007645908600432</v>
+        <v>1.009088694047137</v>
       </c>
       <c r="E19">
-        <v>1.00081328138157</v>
+        <v>1.002066552870726</v>
       </c>
       <c r="F19">
-        <v>1.021324867691102</v>
+        <v>1.021923310620337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047716565075236</v>
+        <v>1.048279361965692</v>
       </c>
       <c r="J19">
-        <v>1.019690040859203</v>
+        <v>1.021038495595193</v>
       </c>
       <c r="K19">
-        <v>1.021270113541267</v>
+        <v>1.022688655562807</v>
       </c>
       <c r="L19">
-        <v>1.01455352314031</v>
+        <v>1.015785357545865</v>
       </c>
       <c r="M19">
-        <v>1.034722759803517</v>
+        <v>1.035311479401614</v>
       </c>
       <c r="N19">
-        <v>1.010274661636325</v>
+        <v>1.012742332886903</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036623973993591</v>
+        <v>1.037089602827088</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026185593286944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027204865621408</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018310905501088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9901538072680801</v>
+        <v>0.9918364956286581</v>
       </c>
       <c r="D20">
-        <v>1.00585137642247</v>
+        <v>1.007603992476445</v>
       </c>
       <c r="E20">
-        <v>0.9988644367745607</v>
+        <v>1.00038173986401</v>
       </c>
       <c r="F20">
-        <v>1.018111993038739</v>
+        <v>1.018834008255967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046854081088201</v>
+        <v>1.047529237131953</v>
       </c>
       <c r="J20">
-        <v>1.018069631476645</v>
+        <v>1.019685774642253</v>
       </c>
       <c r="K20">
-        <v>1.019792110885003</v>
+        <v>1.021514439766013</v>
       </c>
       <c r="L20">
-        <v>1.01292728312493</v>
+        <v>1.014417880156165</v>
       </c>
       <c r="M20">
-        <v>1.031843669720032</v>
+        <v>1.032553575953756</v>
       </c>
       <c r="N20">
-        <v>1.009569844577163</v>
+        <v>1.012350596272983</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033815608083308</v>
+        <v>1.034377428152683</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025144543664139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02637900389193</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017968991103789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9845137376772075</v>
+        <v>0.9868005976824086</v>
       </c>
       <c r="D21">
-        <v>1.001705352201219</v>
+        <v>1.004135549445174</v>
       </c>
       <c r="E21">
-        <v>0.9944018924907709</v>
+        <v>0.9964619940611247</v>
       </c>
       <c r="F21">
-        <v>1.014175742341026</v>
+        <v>1.015157757338335</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045279448215249</v>
+        <v>1.046194018875575</v>
       </c>
       <c r="J21">
-        <v>1.014673511960218</v>
+        <v>1.01686073768174</v>
       </c>
       <c r="K21">
-        <v>1.016654488029566</v>
+        <v>1.019038993877561</v>
       </c>
       <c r="L21">
-        <v>1.009490104593932</v>
+        <v>1.011510706499972</v>
       </c>
       <c r="M21">
-        <v>1.02889343740769</v>
+        <v>1.029857541270036</v>
       </c>
       <c r="N21">
-        <v>1.008383377455472</v>
+        <v>1.012010949792251</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031439550203083</v>
+        <v>1.032202583103716</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022929359194232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024632359585713</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01740865256618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9808987217276521</v>
+        <v>0.983572932176428</v>
       </c>
       <c r="D22">
-        <v>0.9990521164865764</v>
+        <v>1.00191626024539</v>
       </c>
       <c r="E22">
-        <v>0.991553087158115</v>
+        <v>0.9939609425667345</v>
       </c>
       <c r="F22">
-        <v>1.011755428577096</v>
+        <v>1.012903999152972</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044265450936844</v>
+        <v>1.045332618838207</v>
       </c>
       <c r="J22">
-        <v>1.012500800798201</v>
+        <v>1.015051449617382</v>
       </c>
       <c r="K22">
-        <v>1.014642374550464</v>
+        <v>1.017449850988759</v>
       </c>
       <c r="L22">
-        <v>1.00729375701551</v>
+        <v>1.009652991228068</v>
       </c>
       <c r="M22">
-        <v>1.027097550613674</v>
+        <v>1.028224087524348</v>
       </c>
       <c r="N22">
-        <v>1.007628149817327</v>
+        <v>1.011787716099769</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030018206599569</v>
+        <v>1.03090979767712</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02149294438322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023493742731764</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017048660071455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9828045392401632</v>
+        <v>0.9852606587967647</v>
       </c>
       <c r="D23">
-        <v>1.000440546745348</v>
+        <v>1.003064364774905</v>
       </c>
       <c r="E23">
-        <v>0.9930512122925209</v>
+        <v>0.9952626665887991</v>
       </c>
       <c r="F23">
-        <v>1.013034859667825</v>
+        <v>1.014089653609258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044799167319333</v>
+        <v>1.045780433899518</v>
       </c>
       <c r="J23">
-        <v>1.013639711209542</v>
+        <v>1.015985797828289</v>
       </c>
       <c r="K23">
-        <v>1.015690672095436</v>
+        <v>1.018263949210632</v>
       </c>
       <c r="L23">
-        <v>1.008445558428964</v>
+        <v>1.010613556149822</v>
       </c>
       <c r="M23">
-        <v>1.028045505495661</v>
+        <v>1.029080594907835</v>
       </c>
       <c r="N23">
-        <v>1.008020800307347</v>
+        <v>1.011855906432413</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030768460046776</v>
+        <v>1.031587674693285</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022224359517718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02405862628721</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01722828427796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9901596265097342</v>
+        <v>0.9918497283849469</v>
       </c>
       <c r="D24">
-        <v>1.00583294894386</v>
+        <v>1.007591989893682</v>
       </c>
       <c r="E24">
-        <v>0.998855194131315</v>
+        <v>1.000380726227609</v>
       </c>
       <c r="F24">
-        <v>1.01798819928983</v>
+        <v>1.018713705478666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046831714492824</v>
+        <v>1.047509916432462</v>
       </c>
       <c r="J24">
-        <v>1.018041807279407</v>
+        <v>1.01966516670587</v>
       </c>
       <c r="K24">
-        <v>1.019758399959279</v>
+        <v>1.021487080639101</v>
       </c>
       <c r="L24">
-        <v>1.012902443714289</v>
+        <v>1.014401159184001</v>
       </c>
       <c r="M24">
-        <v>1.031706618101578</v>
+        <v>1.032419968609385</v>
       </c>
       <c r="N24">
-        <v>1.00954379293244</v>
+        <v>1.012330759174445</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03366601901449</v>
+        <v>1.034230593306284</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025092902493991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02632920575717</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017952477281336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983492783461235</v>
+        <v>0.9994011189759892</v>
       </c>
       <c r="D25">
-        <v>1.01187227943345</v>
+        <v>1.012843751194515</v>
       </c>
       <c r="E25">
-        <v>1.005350634238737</v>
+        <v>1.006313219387043</v>
       </c>
       <c r="F25">
-        <v>1.023547339355583</v>
+        <v>1.023998603319127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049029201808383</v>
+        <v>1.049453332214404</v>
       </c>
       <c r="J25">
-        <v>1.022932323851207</v>
+        <v>1.023948654679006</v>
       </c>
       <c r="K25">
-        <v>1.024289047335248</v>
+        <v>1.025245903399941</v>
       </c>
       <c r="L25">
-        <v>1.017866452486232</v>
+        <v>1.018814314953549</v>
       </c>
       <c r="M25">
-        <v>1.035790788517489</v>
+        <v>1.036235454043158</v>
       </c>
       <c r="N25">
-        <v>1.011235200470683</v>
+        <v>1.01344433043138</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036898389693397</v>
+        <v>1.037250314326055</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028293479311801</v>
+        <v>1.028983717226394</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01881431800147</v>
       </c>
     </row>
   </sheetData>
